--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,228 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>427200</v>
+      </c>
+      <c r="F8" s="3">
         <v>437900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>435300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>408600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>397800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>400600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>411000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>380600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>309200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>308000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>320300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>285800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>309900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>175300</v>
+      </c>
+      <c r="F9" s="3">
         <v>162200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>155200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>148600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>145500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>144700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>145200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>138400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>127800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>132400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>129400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>123400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>140900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>251900</v>
+      </c>
+      <c r="F10" s="3">
         <v>275700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>280100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>260000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>252300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>255900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>265800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>242200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>181400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>175600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>190900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>162400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>169000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +903,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +949,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,96 +999,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>10800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>4500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>14900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>59000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-18400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F15" s="3">
         <v>33300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>31500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>33200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>34200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>29100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>33400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>32200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>34000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>31200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>31300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>29200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>30200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>356200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>391800</v>
+      </c>
+      <c r="F17" s="3">
         <v>358900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>361900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>342300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>352000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>323200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>339500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>336800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>242700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>246300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>294500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>225100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>230700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>35400</v>
+      </c>
+      <c r="F18" s="3">
         <v>79000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>73400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>66300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>45800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>77400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>71500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>43800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>66500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>61700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>25800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>60700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>79200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,228 +1240,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>451100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>95300</v>
+      </c>
+      <c r="F21" s="3">
         <v>114500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>107200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>102200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>83300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>557600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>105800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>76700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>101800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>92700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>59900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>90300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>110100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F22" s="3">
         <v>27900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>29900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>29100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>29700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>29600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>30100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>30200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>30200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>30000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>28900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>29000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>29300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F23" s="3">
         <v>53300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>45700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>39900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>19400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>498900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>42300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>14400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>37600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>31600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>32100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>50600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F24" s="3">
         <v>7200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>13400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>102800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>11600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>17300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>9800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>21700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F26" s="3">
         <v>46100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>32400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>31900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>19000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>396100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>30700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>16500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>16600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>14300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>22300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>28900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F27" s="3">
         <v>46100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>32400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>31900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>396100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>30700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>16500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>16600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>14300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>22300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>28900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1686,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1585,38 +1706,44 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-4900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>3600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>142700</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,96 +1836,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-451100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F33" s="3">
         <v>46100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>32400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>31900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>18800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>391200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>29900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>20200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>159300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>14300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>22300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>28900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F35" s="3">
         <v>46100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>32400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>31900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>18800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>391200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>29900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>20200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>159300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>14300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>22300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>28900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,52 +2135,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>294900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300200</v>
+      </c>
+      <c r="F41" s="3">
         <v>439400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>426200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>414200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>431400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>634800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>194900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>187700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>171400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>186600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>204500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>193200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>198200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,87 +2231,99 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>117500</v>
+      </c>
+      <c r="F43" s="3">
         <v>105000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>101100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>110600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>109800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>100100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>95100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>109900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>114400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>115400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>106600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>90300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>98800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F44" s="3">
         <v>3500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2700</v>
       </c>
       <c r="O44" s="3">
         <v>2900</v>
@@ -2140,228 +2331,264 @@
       <c r="P44" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R44" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>211400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>132500</v>
+      </c>
+      <c r="F45" s="3">
         <v>125800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>141500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>135500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>120800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>117900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>140100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>141700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>115400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>116000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>126800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>152300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>152600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>591900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>554000</v>
+      </c>
+      <c r="F46" s="3">
         <v>673800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>672400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>663800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>665700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>856100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>433400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>442400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>404400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>420900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>440900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>438500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>452500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>307200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>304200</v>
+      </c>
+      <c r="F47" s="3">
         <v>297500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>289500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>284800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>274100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>278700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>281000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>283300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>302700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>271800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>270100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>57000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>66200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1990800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2034300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2050400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2085300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2117900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1213200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1224000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1227000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1245400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1263100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1252200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1254800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1190600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1192300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1989100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2003100</v>
+      </c>
+      <c r="F49" s="3">
         <v>2007300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2013200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2019600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2042000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2052900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2043200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2053800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2064900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2075600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2081100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2056200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2063900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,52 +2681,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>98800</v>
+      </c>
+      <c r="F52" s="3">
         <v>107300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>103500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>99600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>96900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>95800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>95500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>85000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>61900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>69700</v>
       </c>
       <c r="M52" s="3">
         <v>61900</v>
       </c>
       <c r="N52" s="3">
+        <v>69700</v>
+      </c>
+      <c r="O52" s="3">
+        <v>61900</v>
+      </c>
+      <c r="P52" s="3">
         <v>210100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>164300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4981700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4994500</v>
+      </c>
+      <c r="F54" s="3">
         <v>5136200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5163900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5185700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4292000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4507400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4080200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4109800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4096900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4090300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4108700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3952300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3939300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,272 +2875,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F57" s="3">
         <v>23800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>17300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>16400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>21700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>24100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>21300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>19300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>22800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>25800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>24000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>21900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>27600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F58" s="3">
         <v>33300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>32700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>32600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>31700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>31300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>31100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>30800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>30200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>29400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>29000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>24900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>24700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>247300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>293200</v>
+      </c>
+      <c r="F59" s="3">
         <v>280300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>291300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>274700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>230800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>283800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>174200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>179300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>176600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>161900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>177800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>430800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>349700</v>
+      </c>
+      <c r="F60" s="3">
         <v>337400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>341300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>323600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>284200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>339100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>252800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>250100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>227200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>234400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>229500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>208600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>230100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2733000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2738400</v>
+      </c>
+      <c r="F61" s="3">
         <v>2742600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2740200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2760200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2752800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2759800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2771700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2777200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2724200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2696500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2699800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2527800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2487600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1366900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1390100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1406600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1434400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1461200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>606600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>625200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>625200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>619600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>572300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>696700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>692300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>691000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>693900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4530600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4478200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4486600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4515800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4545000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3643600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3724100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3649600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3646800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3523700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3627700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3621600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3427500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3411600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>173400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>185700</v>
+      </c>
+      <c r="F72" s="3">
         <v>186300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>163200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>154000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>146300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>147000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-224100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-233700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-163300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-305700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-302900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-283900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-290900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>451100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>516400</v>
+      </c>
+      <c r="F76" s="3">
         <v>649600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>648000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>640700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>648400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>783300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>430500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>463000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>573200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>462600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>487000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>524800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>527700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F81" s="3">
         <v>46100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>32400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>31900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>18800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>391200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>29900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>20200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>159300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>14300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>22300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>28900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F83" s="3">
         <v>33300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>31500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>33200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>34200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>29100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>33400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>32200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>34000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>31200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>31300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>29200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>30200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F89" s="3">
         <v>83400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>92000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>62000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>81200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>79700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>68700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>74900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>56200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>81900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>38700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>51600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,52 +4390,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-14300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-30100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-15800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-13300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-10600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-28000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-21600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-17300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-14800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-82600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-15900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-28500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>414100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-11500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-29200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-16600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-15100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>29700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,52 +4610,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23100</v>
+        <v>-26800</v>
       </c>
       <c r="E96" s="3">
-        <v>-23100</v>
+        <v>-27100</v>
       </c>
       <c r="F96" s="3">
         <v>-23100</v>
       </c>
       <c r="G96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-19700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-20100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-20300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-20400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-16900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-17000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-17200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-17300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-16000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,136 +4806,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-181900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-53200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-67600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-62600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-154800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-55700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-69600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-25700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-58800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-62800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-56200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-38000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-188900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-5500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="F102" s="3">
         <v>13400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>12400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-14500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-194300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>441900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>29400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-15200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-17900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>11300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-110500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,241 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>402300</v>
+      </c>
+      <c r="E8" s="3">
         <v>405000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>427200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>437900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>435300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>408600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>397800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>411000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>380600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>309200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>308000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>320300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>285800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>309900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E9" s="3">
         <v>158000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>175300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>162200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>155200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>148600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>145500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>144700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>145200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>138400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>127800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>132400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>129400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>123400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>140900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>256200</v>
+      </c>
+      <c r="E10" s="3">
         <v>247000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>251900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>275700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>280100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>260000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>252300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>255900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>265800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>242200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>181400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>175600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>190900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>162400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>169000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,8 +918,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,108 +1022,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>18700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>59000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-18400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E15" s="3">
         <v>31000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>33700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>33300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>31500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>29100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>32200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>31200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>31300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>29200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>341600</v>
+      </c>
+      <c r="E17" s="3">
         <v>356200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>391800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>358900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>361900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>342300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>352000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>323200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>339500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>336800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>242700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>246300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>294500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>225100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>230700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E18" s="3">
         <v>48800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>35400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>79000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>73400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>66300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>45800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>77400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>71500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>66500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>61700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>60700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>79200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,258 +1275,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>26200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>451100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E21" s="3">
         <v>80900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>95300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>114500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>107200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>102200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>83300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>557600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>105800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>76700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>101800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>92700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>59900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>90300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>110100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E22" s="3">
         <v>28500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>29900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>29700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>30200</v>
       </c>
       <c r="M22" s="3">
         <v>30200</v>
       </c>
       <c r="N22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="O22" s="3">
         <v>30000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E23" s="3">
         <v>21300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>53300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>39900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>498900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>31600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E24" s="3">
         <v>6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>102800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E26" s="3">
         <v>14400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>46100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>396100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E27" s="3">
         <v>14400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>46100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>396100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1712,23 +1773,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-4900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>3600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>142700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1736,14 +1797,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-26200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-451100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E33" s="3">
         <v>14400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>46100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>391200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>159300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E35" s="3">
         <v>14400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>46100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>391200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>159300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,58 +2223,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E41" s="3">
         <v>294900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>439400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>426200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>414200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>431400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>634800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>194900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>187700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>171400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>186600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>204500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>193200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>198200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,358 +2327,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>134500</v>
+      </c>
+      <c r="E43" s="3">
         <v>81000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>117500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>105000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>101100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>110600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>109800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>95100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>109900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>114400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>115400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>106600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>90300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>98800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E44" s="3">
         <v>4600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3500</v>
       </c>
       <c r="G44" s="3">
         <v>3500</v>
       </c>
       <c r="H44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3300</v>
       </c>
       <c r="K44" s="3">
         <v>3300</v>
       </c>
       <c r="L44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M44" s="3">
         <v>3100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2900</v>
       </c>
       <c r="O44" s="3">
         <v>2900</v>
       </c>
       <c r="P44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E45" s="3">
         <v>211400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>132500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>125800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>141500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>135500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>120800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>117900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>140100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>141700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>115400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>116000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>126800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>152300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>152600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>697900</v>
+      </c>
+      <c r="E46" s="3">
         <v>591900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>554000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>673800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>672400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>663800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>665700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>856100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>433400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>442400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>404400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>420900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>440900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>438500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>452500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E47" s="3">
         <v>307200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>304200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>297500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>289500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>284800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>274100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>278700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>281000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>283300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>302700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>271800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>270100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>57000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>66200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1975700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1990800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2034300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2050400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2085300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2117900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1213200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1224000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1227000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1245400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1263100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1252200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1254800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1190600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1192300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1983100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1989100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2003100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2007300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2013200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2019600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2042000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2052900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2043200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2053800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2064900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2075600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2081100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2056200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2063900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E52" s="3">
         <v>102800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>98800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>107300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>103500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>99600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>96900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>95800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>95500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>69700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>210100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>164300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5070400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4981700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4994500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5136200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5163900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5185700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4292000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4507400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4080200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4109800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4096900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4090300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4108700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3952300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3939300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,308 +3007,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E57" s="3">
         <v>22500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E58" s="3">
         <v>160900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>32700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>31700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>31300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>30800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>29400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>29000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>314700</v>
+      </c>
+      <c r="E59" s="3">
         <v>247300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>293200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>280300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>291300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>274700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>230800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>283800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>174200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>179300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>176600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>161900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>177800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>492600</v>
+      </c>
+      <c r="E60" s="3">
         <v>430800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>349700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>337400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>341300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>323600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>284200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>339100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>252800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>250100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>227200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>234400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>229500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>208600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>230100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2728000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2733000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2738400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2742600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2740200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2760200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2752800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2759800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2771700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2777200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2724200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2696500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2699800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2527800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2487600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1365700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1366900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1390100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1406600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1434400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1461200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>606600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>625200</v>
       </c>
       <c r="K62" s="3">
         <v>625200</v>
       </c>
       <c r="L62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="M62" s="3">
         <v>619600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>572300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>696700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>692300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>691000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>693900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4586400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4530600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4478200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4486600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4515800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4545000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3643600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3724100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3649600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3646800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3523700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3627700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3621600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3427500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3411600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>187100</v>
+      </c>
+      <c r="E72" s="3">
         <v>173400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>185700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>186300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>163200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>154000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>146300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>147000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-224100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-233700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-163300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-305700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-302900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-283900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-290900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E76" s="3">
         <v>451100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>516400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>649600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>648000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>640700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>648400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>783300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>430500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>463000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>573200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>462600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>487000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>524800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>527700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E81" s="3">
         <v>14400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>46100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>391200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>159300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E83" s="3">
         <v>31000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>83400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>92000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>62000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>81200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>79700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>68700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>74900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>81900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>51600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-82600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>414100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>29700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,19 +4845,20 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-26800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-23100</v>
       </c>
       <c r="G96" s="3">
         <v>-23100</v>
@@ -4633,37 +4867,40 @@
         <v>-23100</v>
       </c>
       <c r="I96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-19700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-20100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-20300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-20400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-17000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-17200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-16000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E100" s="3">
         <v>63400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-181900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-53200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-67600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-62600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-154800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-55700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-69600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-58800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-62800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-188900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E102" s="3">
         <v>26800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-139000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-194300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>441900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-110500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,241 +665,254 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>452200</v>
+      </c>
+      <c r="E8" s="3">
         <v>402300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>405000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>427200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>437900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>435300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>408600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>397800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>411000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>380600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>309200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>308000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>320300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>285800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>309900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E9" s="3">
         <v>146100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>158000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>175300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>162200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>155200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>148600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>145500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>144700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>145200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>138400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>127800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>132400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>129400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>123400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>140900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E10" s="3">
         <v>256200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>247000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>251900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>275700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>280100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>260000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>252300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>255900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>265800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>242200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>181400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>175600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>190900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>162400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>169000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,8 +932,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,114 +1042,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>18700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>59000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-18400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E15" s="3">
         <v>34700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>31000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>33700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>33300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>31500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>29100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>32200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>31200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>31300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>29200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>370900</v>
+      </c>
+      <c r="E17" s="3">
         <v>341600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>356200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>391800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>358900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>361900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>342300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>352000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>323200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>339500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>336800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>242700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>246300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>294500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>225100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>230700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E18" s="3">
         <v>60700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>48800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>35400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>79000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>73400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>66300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>45800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>71500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>66500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>61700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>60700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>79200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,114 +1309,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>26200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>451100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E21" s="3">
         <v>95200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>80900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>95300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>114500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>107200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>102200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>83300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>557600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>105800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>76700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>101800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>92700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>59900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>90300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>110100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1391,158 +1431,167 @@
         <v>29100</v>
       </c>
       <c r="E22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F22" s="3">
         <v>28500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>29000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>29100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>30200</v>
       </c>
       <c r="N22" s="3">
         <v>30200</v>
       </c>
       <c r="O22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="P22" s="3">
         <v>30000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>28900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E23" s="3">
         <v>31400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>53300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>498900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E24" s="3">
         <v>6500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>102800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E26" s="3">
         <v>24900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>46100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>32400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>396100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E27" s="3">
         <v>24900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>46100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>32400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>396100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>28900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,23 +1837,23 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>3600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>142700</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1800,14 +1861,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-26200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-451100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E33" s="3">
         <v>24900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>46100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>32400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>391200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>29900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>159300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>28900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E35" s="3">
         <v>24900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>46100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>32400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>391200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>29900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>159300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>28900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,61 +2310,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>313200</v>
+      </c>
+      <c r="E41" s="3">
         <v>338000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>294900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>439400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>426200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>414200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>431400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>634800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>194900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>187700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>171400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>186600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>204500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>193200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>198200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2330,379 +2420,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E43" s="3">
         <v>134500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>81000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>117500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>105000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>101100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>110600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>109800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>95100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>114400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>115400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>106600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>90300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>98800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3500</v>
       </c>
       <c r="H44" s="3">
         <v>3500</v>
       </c>
       <c r="I44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J44" s="3">
         <v>3600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3300</v>
       </c>
       <c r="L44" s="3">
         <v>3300</v>
       </c>
       <c r="M44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N44" s="3">
         <v>3100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2900</v>
       </c>
       <c r="P44" s="3">
         <v>2900</v>
       </c>
       <c r="Q44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R44" s="3">
         <v>2700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E45" s="3">
         <v>221000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>211400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>132500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>125800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>141500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>135500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>120800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>117900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>140100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>141700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>115400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>116000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>126800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>152300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>152600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>607700</v>
+      </c>
+      <c r="E46" s="3">
         <v>697900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>591900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>554000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>673800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>672400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>663800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>665700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>856100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>433400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>442400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>404400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>420900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>440900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>438500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>452500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>308200</v>
+      </c>
+      <c r="E47" s="3">
         <v>307000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>307200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>304200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>297500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>289500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>284800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>274100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>278700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>281000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>283300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>302700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>271800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>270100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>57000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>66200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1957800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1975700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1990800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2034300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2050400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2085300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2117900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1213200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1224000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1227000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1245400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1263100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1252200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1254800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1190600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1192300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1979000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1983100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1989100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2003100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2007300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2013200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2019600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2042000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2052900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2043200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2053800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2064900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2075600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2081100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2056200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2063900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E52" s="3">
         <v>106600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>98800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>107300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>103500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>99600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>96900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>95800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>95500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>85000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>69700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>210100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>164300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4963000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5070400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4981700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4994500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5136200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5163900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5185700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4292000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4507400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4080200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4109800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4096900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4090300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4108700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3952300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3939300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,326 +3138,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E57" s="3">
         <v>20600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E58" s="3">
         <v>157300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>160900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>33300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>31700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>29400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>29000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>295400</v>
+      </c>
+      <c r="E59" s="3">
         <v>314700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>247300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>293200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>280300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>291300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>274700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>230800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>283800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>174200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>179300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>176600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>161900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>177800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>360300</v>
+      </c>
+      <c r="E60" s="3">
         <v>492600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>430800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>349700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>337400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>341300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>323600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>284200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>339100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>252800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>250100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>227200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>234400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>229500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>208600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>230100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2724800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2728000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2733000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2738400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2742600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2740200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2760200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2752800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2759800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2771700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2777200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2724200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2696500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2699800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2527800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2487600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1356400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1365700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1366900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1390100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1406600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1434400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1461200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>606600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>625200</v>
       </c>
       <c r="L62" s="3">
         <v>625200</v>
       </c>
       <c r="M62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="N62" s="3">
         <v>619600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>572300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>696700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>692300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>691000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>693900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4441500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4586400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4530600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4478200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4486600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4515800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4545000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3643600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3724100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3649600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3646800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3523700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3627700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3621600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3427500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3411600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>215600</v>
+      </c>
+      <c r="E72" s="3">
         <v>187100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>173400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>185700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>186300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>163200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>154000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>146300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>147000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-224100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-233700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-163300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-305700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-302900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-283900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-290900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>521500</v>
+      </c>
+      <c r="E76" s="3">
         <v>484000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>451100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>516400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>649600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>648000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>640700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>648400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>783300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>430500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>463000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>573200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>462600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>487000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>524800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>527700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E81" s="3">
         <v>24900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>46100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>32400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>391200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>29900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>159300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>28900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E83" s="3">
         <v>34700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>175200</v>
+      </c>
+      <c r="E89" s="3">
         <v>49900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>83400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>92000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>62000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>81200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>79700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>68700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>74900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>56200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>81900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>51600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-82600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>414100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>29700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4855,13 +5089,13 @@
         <v>-11200</v>
       </c>
       <c r="E96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-26800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-23100</v>
       </c>
       <c r="H96" s="3">
         <v>-23100</v>
@@ -4870,37 +5104,40 @@
         <v>-23100</v>
       </c>
       <c r="J96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-20100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-20300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-20400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-16900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-17000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-17300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-16000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-163600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>63400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-181900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-53200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-67600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-62600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-154800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-69600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-58800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-62800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-188900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>23900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-139000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-194300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>441900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-110500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,254 +665,267 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>474300</v>
+      </c>
+      <c r="E8" s="3">
         <v>452200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>402300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>405000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>427200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>437900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>435300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>408600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>397800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>411000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>380600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>309200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>308000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>320300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>285800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>309900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>171800</v>
+      </c>
+      <c r="E9" s="3">
         <v>165500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>146100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>158000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>175300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>162200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>155200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>148600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>145500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>144700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>145200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>138400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>127800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>132400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>129400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>123400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>140900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>302500</v>
+      </c>
+      <c r="E10" s="3">
         <v>286700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>256200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>247000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>251900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>275700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>280100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>260000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>252300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>255900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>265800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>242200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>181400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>175600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>190900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>162400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>169000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,8 +946,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,120 +1062,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>59000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-18400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E15" s="3">
         <v>33000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>31000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>33700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>31500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>29100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>33400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>32200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>34000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>31200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>31300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>29200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>30200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1202,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>395800</v>
+      </c>
+      <c r="E17" s="3">
         <v>370900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>341600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>356200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>391800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>358900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>361900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>342300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>352000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>323200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>339500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>336800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>242700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>246300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>294500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>225100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>230700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E18" s="3">
         <v>81300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>60700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>35400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>79000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>73400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>66300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>45800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>71500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>66500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>61700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>60700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>79200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,288 +1343,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>26200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>451100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E21" s="3">
         <v>114500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>95200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>80900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>95300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>114500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>107200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>102200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>83300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>557600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>105800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>76700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>101800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>92700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>59900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>90300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>110100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29100</v>
+        <v>31000</v>
       </c>
       <c r="E22" s="3">
         <v>29100</v>
       </c>
       <c r="F22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G22" s="3">
         <v>28500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>29000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>27900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>29900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>30200</v>
       </c>
       <c r="O22" s="3">
         <v>30200</v>
       </c>
       <c r="P22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>30000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>28900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>29300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E23" s="3">
         <v>52400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>31400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>53300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>498900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>42300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>37600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>50600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E24" s="3">
         <v>12700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>102800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,120 +1695,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E26" s="3">
         <v>39800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>46100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>396100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E27" s="3">
         <v>39800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>26500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>46100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>396100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>28900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,23 +1901,23 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>3600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>142700</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1864,14 +1925,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,120 +2049,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-26200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-451100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E33" s="3">
         <v>39800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>26500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>46100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>391200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>159300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>28900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,125 +2226,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E35" s="3">
         <v>39800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>26500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>46100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>391200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>159300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>28900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,64 +2397,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E41" s="3">
         <v>313200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>338000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>294900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>439400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>426200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>414200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>431400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>634800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>194900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>187700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>171400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>186600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>204500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>193200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>198200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,400 +2513,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E43" s="3">
         <v>100100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>134500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>81000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>117500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>105000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>101100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>110600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>109800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>95100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>109900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>114400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>115400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>106600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>90300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>98800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E44" s="3">
         <v>4600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3900</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3500</v>
       </c>
       <c r="I44" s="3">
         <v>3500</v>
       </c>
       <c r="J44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K44" s="3">
         <v>3600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3300</v>
       </c>
       <c r="M44" s="3">
         <v>3300</v>
       </c>
       <c r="N44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O44" s="3">
         <v>3100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3200</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2900</v>
       </c>
       <c r="Q44" s="3">
         <v>2900</v>
       </c>
       <c r="R44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S44" s="3">
         <v>2700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E45" s="3">
         <v>189800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>221000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>211400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>132500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>125800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>141500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>135500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>120800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>117900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>140100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>141700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>115400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>116000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>126800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>152300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>152600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>687600</v>
+      </c>
+      <c r="E46" s="3">
         <v>607700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>697900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>591900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>554000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>673800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>672400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>663800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>665700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>856100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>433400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>442400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>404400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>420900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>440900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>438500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>452500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>318900</v>
+      </c>
+      <c r="E47" s="3">
         <v>308200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>307000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>307200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>304200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>297500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>289500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>284800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>274100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>278700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>281000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>283300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>302700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>271800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>270100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>57000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>66200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1943500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1957800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1975700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1990800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2034300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2050400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2085300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2117900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1213200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1224000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1227000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1245400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1263100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1252200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1254800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1190600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1192300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1976000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1979000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1983100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1989100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2003100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2007300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2013200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2019600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2042000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2052900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2043200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2053800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2064900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2075600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2081100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2056200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2063900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,64 +3044,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E52" s="3">
         <v>110300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>106600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>102800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>98800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>107300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>103500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>99600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>96900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>95800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>95500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>210100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>164300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,64 +3162,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5040000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4963000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5070400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4981700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4994500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5136200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5163900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5185700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4292000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4507400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4080200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4109800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4096900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4090300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4108700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3952300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3939300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,344 +3269,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E57" s="3">
         <v>18000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>22800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E58" s="3">
         <v>46800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>157300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>160900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>33800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>32600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>29400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>29000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>341200</v>
+      </c>
+      <c r="E59" s="3">
         <v>295400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>314700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>247300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>293200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>280300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>291300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>274700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>230800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>283800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>174200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>179300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>176600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>161900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>177800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>413300</v>
+      </c>
+      <c r="E60" s="3">
         <v>360300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>492600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>430800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>349700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>337400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>341300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>323600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>284200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>339100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>252800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>250100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>227200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>234400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>229500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>208600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>230100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2724200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2724800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2728000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2733000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2738400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2742600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2740200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2760200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2752800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2759800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2771700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2777200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2724200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2696500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2699800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2527800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2487600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1352900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1356400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1365700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1366900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1390100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1406600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1434400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1461200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>606600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>625200</v>
       </c>
       <c r="M62" s="3">
         <v>625200</v>
       </c>
       <c r="N62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="O62" s="3">
         <v>619600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>572300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>696700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>692300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>691000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>693900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,64 +3798,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4490400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4441500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4586400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4530600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4478200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4486600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4515800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4545000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3643600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3724100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3649600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3646800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3523700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3627700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3621600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3427500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3411600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,64 +4116,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>238700</v>
+      </c>
+      <c r="E72" s="3">
         <v>215600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>187100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>173400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>185700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>186300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>163200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>154000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>146300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>147000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-224100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-233700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-163300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-305700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-302900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-283900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-290900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,64 +4352,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>549600</v>
+      </c>
+      <c r="E76" s="3">
         <v>521500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>484000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>451100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>516400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>649600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>648000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>640700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>648400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>783300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>430500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>463000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>573200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>462600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>487000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>524800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>527700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,125 +4470,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E81" s="3">
         <v>39800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>26500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>46100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>391200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>159300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>28900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,64 +4618,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E83" s="3">
         <v>33000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,64 +4970,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E89" s="3">
         <v>175200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>49900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>83400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>92000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>62000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>81200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>79700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>68700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>74900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>56200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>81900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>51600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,64 +5054,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-82600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,64 +5229,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>414100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>29700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,25 +5313,26 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11200</v>
+        <v>-15700</v>
       </c>
       <c r="E96" s="3">
         <v>-11200</v>
       </c>
       <c r="F96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-26800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-23100</v>
       </c>
       <c r="I96" s="3">
         <v>-23100</v>
@@ -5107,37 +5341,40 @@
         <v>-23100</v>
       </c>
       <c r="K96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-19700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-20100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-20300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-20400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-16900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-17200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-17300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-16000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,172 +5547,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-163600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>63400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-181900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-53200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-67600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-62600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-154800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-69600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-58800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-56200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-38000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-188900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-139000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-194300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>441900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>29400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-110500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,279 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E7" s="2">
         <v>44199</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43828</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43464</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42736</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>460200</v>
+      </c>
+      <c r="E8" s="3">
         <v>474300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>452200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>402300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>405000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>427200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>437900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>435300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>408600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>397800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>411000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>380600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>309200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>308000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>320300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>285800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>309900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E9" s="3">
         <v>171800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>165500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>146100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>158000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>175300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>162200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>155200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>148600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>145500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>144700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>145200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>138400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>127800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>132400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>129400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>123400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>140900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>295700</v>
+      </c>
+      <c r="E10" s="3">
         <v>302500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>286700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>256200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>247000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>251900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>275700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>280100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>260000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>252300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>255900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>265800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>242200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>181400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>175600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>190900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>162400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>169000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,8 +959,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1019,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,126 +1081,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E14" s="3">
         <v>9100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>59000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-18400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E15" s="3">
         <v>34000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>33000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>31000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>31500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>29100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>32200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>34000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>31200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>31300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>29200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>30200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>377100</v>
+      </c>
+      <c r="E17" s="3">
         <v>395800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>370900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>341600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>356200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>391800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>358900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>361900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>342300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>352000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>323200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>339500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>336800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>242700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>246300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>294500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>225100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>230700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E18" s="3">
         <v>78600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>81300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>60700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>48800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>35400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>79000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>73400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>66300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>77400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>71500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>43800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>66500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>61700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>60700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>79200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,8 +1376,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1353,294 +1386,309 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>26200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>451100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E21" s="3">
         <v>112700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>114500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>95200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>80900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>95300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>114500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>107200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>102200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>83300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>557600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>105800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>76700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>101800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>92700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>59900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>90300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>110100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E22" s="3">
         <v>31000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>29100</v>
       </c>
       <c r="F22" s="3">
         <v>29100</v>
       </c>
       <c r="G22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="H22" s="3">
         <v>28500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>27900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>30100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>30200</v>
       </c>
       <c r="P22" s="3">
         <v>30200</v>
       </c>
       <c r="Q22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="R22" s="3">
         <v>30000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>28900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>29000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>29300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E23" s="3">
         <v>47600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>52400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>31400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>32500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>45700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>498900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>42300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>31600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>50600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E24" s="3">
         <v>8900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>102800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E26" s="3">
         <v>38700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>39800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>46100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>396100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E27" s="3">
         <v>38700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>39800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>46100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>396100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>28900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1932,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,23 +1964,23 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-4900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>3600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>142700</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1928,14 +1988,17 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,8 +2118,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2061,117 +2130,123 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-26200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-451100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E33" s="3">
         <v>38700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>39800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>46100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>391200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>159300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>28900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E35" s="3">
         <v>38700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>39800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>46100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>391200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>159300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>28900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E38" s="2">
         <v>44199</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43828</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43464</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42736</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,67 +2483,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>316500</v>
+      </c>
+      <c r="E41" s="3">
         <v>307000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>313200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>338000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>294900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>439400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>426200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>414200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>431400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>634800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>194900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>187700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>171400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>186600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>204500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>193200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>198200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,67 +2605,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E43" s="3">
         <v>109900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>134500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>81000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>117500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>105000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>101100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>110600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>109800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>95100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>109900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>114400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>115400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>106600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>90300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>98800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2584,353 +2679,371 @@
         <v>4700</v>
       </c>
       <c r="E44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F44" s="3">
         <v>4600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3500</v>
       </c>
       <c r="J44" s="3">
         <v>3500</v>
       </c>
       <c r="K44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3300</v>
       </c>
       <c r="N44" s="3">
         <v>3300</v>
       </c>
       <c r="O44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P44" s="3">
         <v>3100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2900</v>
       </c>
       <c r="R44" s="3">
         <v>2900</v>
       </c>
       <c r="S44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T44" s="3">
         <v>2700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E45" s="3">
         <v>266000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>189800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>221000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>211400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>132500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>125800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>141500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>135500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>120800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>117900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>140100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>141700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>115400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>116000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>126800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>152300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>152600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>641500</v>
+      </c>
+      <c r="E46" s="3">
         <v>687600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>607700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>697900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>591900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>554000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>673800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>672400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>663800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>665700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>856100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>433400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>442400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>404400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>420900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>440900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>438500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>452500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>313500</v>
+      </c>
+      <c r="E47" s="3">
         <v>318900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>308200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>307000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>307200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>304200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>297500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>289500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>284800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>274100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>278700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>281000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>283300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>302700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>271800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>270100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>57000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>66200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1906300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1943500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1957800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1975700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1990800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2034300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2050400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2085300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2117900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1213200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1224000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1227000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1245400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1263100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1252200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1254800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1190600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1192300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1971000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1976000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1979000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1983100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1989100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2003100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2007300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2013200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2019600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2042000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2052900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2043200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2053800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2064900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2075600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2081100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2056200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2063900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,67 +3163,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E52" s="3">
         <v>113900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>110300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>106600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>102800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>98800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>107300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>103500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>99600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>96900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>95800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>95500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>69700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>210100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>164300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4956700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5040000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4963000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5070400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4981700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4994500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5136200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5163900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5185700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4292000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4507400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4080200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4109800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4096900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4090300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4108700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3952300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3939300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,362 +3399,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E57" s="3">
         <v>31100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>25800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E58" s="3">
         <v>41100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>46800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>157300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>160900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>33300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>32700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>29400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>29000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>323400</v>
+      </c>
+      <c r="E59" s="3">
         <v>341200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>295400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>314700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>247300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>293200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>280300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>291300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>274700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>230800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>283800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>174200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>179300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>176600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>161900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>177800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>396500</v>
+      </c>
+      <c r="E60" s="3">
         <v>413300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>360300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>492600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>430800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>349700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>337400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>341300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>323600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>284200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>339100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>252800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>250100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>227200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>234400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>229500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>208600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>230100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2707100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2724200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2724800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2728000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2733000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2738400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2742600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2740200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2760200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2752800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2759800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2771700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2777200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2724200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2696500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2699800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2527800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2487600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1332400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1352900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1356400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1365700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1366900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1390100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1406600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1434400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1461200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>606600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>625200</v>
       </c>
       <c r="N62" s="3">
         <v>625200</v>
       </c>
       <c r="O62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="P62" s="3">
         <v>619600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>572300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>696700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>692300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>691000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>693900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4436000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4490400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4441500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4586400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4530600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4478200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4486600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4515800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4545000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3643600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3724100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3649600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3646800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3523700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3627700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3621600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3427500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3411600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>259900</v>
+      </c>
+      <c r="E72" s="3">
         <v>238700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>215600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>187100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>173400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>185700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>186300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>163200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>154000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>146300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>147000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-224100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-233700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-163300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-305700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-302900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-283900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-290900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>520700</v>
+      </c>
+      <c r="E76" s="3">
         <v>549600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>521500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>484000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>451100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>516400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>649600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>648000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>640700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>648400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>783300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>430500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>463000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>573200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>462600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>487000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>524800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>527700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E80" s="2">
         <v>44199</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43828</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43464</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42736</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E81" s="3">
         <v>38700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>39800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>46100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>391200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>159300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>28900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E83" s="3">
         <v>34000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E89" s="3">
         <v>78600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>175200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>49900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>83400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>92000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>81200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>79700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>68700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>74900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>56200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>81900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>38700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>51600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,67 +5274,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-82600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>414100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>29700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,28 +5546,29 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-11200</v>
       </c>
       <c r="F96" s="3">
         <v>-11200</v>
       </c>
       <c r="G96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-26800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-23100</v>
       </c>
       <c r="J96" s="3">
         <v>-23100</v>
@@ -5344,37 +5577,40 @@
         <v>-23100</v>
       </c>
       <c r="L96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-19700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-20100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-20300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-20400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-17000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-17200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-17300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-16000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,181 +5792,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-42600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-163600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>63400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-181900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-53200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-67600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-154800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-55700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-69600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-58800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-56200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-38000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-188900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E102" s="3">
         <v>11800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-139000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-194300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>441900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>29400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-17900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-110500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,279 +665,291 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E7" s="2">
         <v>44290</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44199</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43828</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43464</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42736</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>493300</v>
+      </c>
+      <c r="E8" s="3">
         <v>460200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>474300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>452200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>402300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>405000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>427200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>437900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>435300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>408600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>397800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>411000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>380600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>309200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>308000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>320300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>285800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>309900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E9" s="3">
         <v>164500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>171800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>165500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>146100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>158000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>175300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>162200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>155200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>148600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>145500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>144700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>145200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>138400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>127800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>132400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>129400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>123400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>140900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>330300</v>
+      </c>
+      <c r="E10" s="3">
         <v>295700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>302500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>286700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>256200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>247000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>251900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>275700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>280100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>260000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>252300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>255900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>265800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>242200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>181400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>175600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>190900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>162400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>169000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,8 +972,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1022,8 +1035,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,132 +1100,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E14" s="3">
         <v>5100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>59000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-18400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E15" s="3">
         <v>31500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>33000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>31000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>31500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>29100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>32200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>34000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>31200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>31300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>29200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>30200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1254,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>384500</v>
+      </c>
+      <c r="E17" s="3">
         <v>377100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>395800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>370900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>341600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>356200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>391800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>358900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>361900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>342300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>352000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>323200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>339500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>336800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>242700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>246300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>294500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>225100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>230700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E18" s="3">
         <v>83100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>78600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>81300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>60700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>48800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>35400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>79000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>73400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>66300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>77400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>71500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>66500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>60700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>79200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1377,318 +1409,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>26200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>451100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E21" s="3">
         <v>114800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>112700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>114500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>95200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>80900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>95300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>114500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>107200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>102200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>83300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>557600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>105800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>76700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>101800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>92700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>59900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>90300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>110100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E22" s="3">
         <v>28800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>29100</v>
       </c>
       <c r="G22" s="3">
         <v>29100</v>
       </c>
       <c r="H22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="I22" s="3">
         <v>28500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>29000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>27900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>30200</v>
       </c>
       <c r="Q22" s="3">
         <v>30200</v>
       </c>
       <c r="R22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="S22" s="3">
         <v>30000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>28900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>29000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>29300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E23" s="3">
         <v>54500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>47600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>31400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>53300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>498900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>42300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>37600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>31600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>50600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E24" s="3">
         <v>13100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>102800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1749,132 +1797,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E26" s="3">
         <v>41400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>39800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>46100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>396100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>28900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E27" s="3">
         <v>41400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>38700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>39800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>46100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>396100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>28900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +1992,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1967,23 +2027,23 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-4900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>3600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>142700</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1991,14 +2051,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2059,8 +2122,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2121,132 +2187,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-26200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-451100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E33" s="3">
         <v>41400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>38700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>46100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>391200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>29900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>159300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>28900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2307,137 +2382,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E35" s="3">
         <v>41400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>38700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>46100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>391200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>29900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>159300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>28900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E38" s="2">
         <v>44290</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44199</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43828</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43464</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42736</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2460,8 +2544,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2484,70 +2569,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>568100</v>
+      </c>
+      <c r="E41" s="3">
         <v>316500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>307000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>313200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>338000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>294900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>439400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>426200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>414200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>431400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>634800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>194900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>187700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>171400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>186600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>204500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>193200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>198200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2608,442 +2697,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E43" s="3">
         <v>100300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>109900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>134500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>81000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>117500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>105000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>101100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>110600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>95100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>109900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>114400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>115400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>106600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>90300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>98800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="E44" s="3">
         <v>4700</v>
       </c>
       <c r="F44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G44" s="3">
         <v>4600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3500</v>
       </c>
       <c r="K44" s="3">
         <v>3500</v>
       </c>
       <c r="L44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3300</v>
       </c>
       <c r="O44" s="3">
         <v>3300</v>
       </c>
       <c r="P44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>3100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3200</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2900</v>
       </c>
       <c r="S44" s="3">
         <v>2900</v>
       </c>
       <c r="T44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U44" s="3">
         <v>2700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>163900</v>
+      </c>
+      <c r="E45" s="3">
         <v>220000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>266000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>189800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>221000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>211400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>132500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>125800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>141500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>135500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>120800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>117900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>140100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>141700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>115400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>116000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>126800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>152300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>152600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>839500</v>
+      </c>
+      <c r="E46" s="3">
         <v>641500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>687600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>607700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>697900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>591900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>554000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>673800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>672400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>663800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>665700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>856100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>433400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>442400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>404400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>420900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>440900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>438500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>452500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>346400</v>
+      </c>
+      <c r="E47" s="3">
         <v>313500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>318900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>308200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>307000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>307200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>304200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>297500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>289500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>284800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>274100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>278700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>281000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>283300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>302700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>271800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>270100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>57000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>66200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1880300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1906300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1943500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1957800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1975700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1990800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2034300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2050400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2085300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2117900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1213200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1224000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1227000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1245400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1263100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1252200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1254800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1190600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1192300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1969800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1971000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1976000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1979000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1983100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1989100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2003100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2007300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2013200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2019600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2042000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2052900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2043200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2053800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2064900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2075600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2081100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2056200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2063900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3104,8 +3217,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3166,70 +3282,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>130800</v>
+      </c>
+      <c r="E52" s="3">
         <v>124400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>113900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>110300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>106600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>102800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>98800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>107300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>103500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>99600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>96900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>95800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>95500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>85000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>69700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>61900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>210100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>164300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3290,70 +3412,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5166900</v>
+      </c>
+      <c r="E54" s="3">
         <v>4956700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5040000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4963000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5070400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4981700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4994500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5136200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5163900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5185700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4292000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4507400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4080200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4109800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4096900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4090300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4108700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3952300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3939300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3376,8 +3504,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3400,380 +3529,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E57" s="3">
         <v>29300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>21900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E58" s="3">
         <v>43800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>46800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>157300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>160900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>33800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>33300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>29400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>29000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>24700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>293100</v>
+      </c>
+      <c r="E59" s="3">
         <v>323400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>341200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>295400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>314700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>247300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>293200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>280300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>291300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>274700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>230800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>283800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>174200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>179300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>176600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>161900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>177800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>372800</v>
+      </c>
+      <c r="E60" s="3">
         <v>396500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>413300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>360300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>492600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>430800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>349700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>337400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>341300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>323600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>284200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>339100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>252800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>250100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>227200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>234400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>229500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>208600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>230100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2895200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2707100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2724200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2724800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2728000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2733000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2738400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2742600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2740200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2760200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2752800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2759800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2771700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2777200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2724200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2696500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2699800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2527800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2487600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1328500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1332400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1352900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1356400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1365700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1366900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1390100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1406600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1434400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1461200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>606600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>625200</v>
       </c>
       <c r="O62" s="3">
         <v>625200</v>
       </c>
       <c r="P62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>619600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>572300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>696700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>692300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>691000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>693900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3834,8 +3982,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3896,8 +4047,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3958,70 +4112,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4596500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4436000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4490400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4441500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4586400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4530600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4478200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4486600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4515800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4545000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3643600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3724100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3649600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3646800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3523700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3627700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3621600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3427500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3411600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4044,8 +4204,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4106,8 +4267,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4168,8 +4332,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4230,8 +4397,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4292,70 +4462,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>303500</v>
+      </c>
+      <c r="E72" s="3">
         <v>259900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>238700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>215600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>187100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>173400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>185700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>186300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>163200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>154000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>146300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>147000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-224100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-233700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-163300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-305700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-302900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-283900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-290900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4416,8 +4592,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4478,8 +4657,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4540,70 +4722,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>570400</v>
+      </c>
+      <c r="E76" s="3">
         <v>520700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>549600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>521500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>484000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>451100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>516400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>649600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>648000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>640700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>648400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>783300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>430500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>463000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>573200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>462600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>487000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>524800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>527700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4664,137 +4852,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E80" s="2">
         <v>44290</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44199</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43828</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43464</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42736</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E81" s="3">
         <v>41400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>38700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>46100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>391200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>29900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>159300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>28900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4817,70 +5014,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E83" s="3">
         <v>31500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4941,8 +5142,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5003,8 +5207,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5065,8 +5272,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5127,8 +5337,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5189,70 +5402,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E89" s="3">
         <v>85800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>78600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>175200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>83400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>92000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>62000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>81200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>79700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>68700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>74900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>56200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>81900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>38700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>51600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5275,70 +5494,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-82600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5399,8 +5622,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5461,70 +5687,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>414100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>29700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5547,31 +5779,32 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-20200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-11200</v>
       </c>
       <c r="G96" s="3">
         <v>-11200</v>
       </c>
       <c r="H96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-26800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-23100</v>
       </c>
       <c r="K96" s="3">
         <v>-23100</v>
@@ -5580,37 +5813,40 @@
         <v>-23100</v>
       </c>
       <c r="M96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-19700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-20100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-20300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-16900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-17000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-17200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-17300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-16000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5671,8 +5907,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5733,8 +5972,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5795,190 +6037,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-91700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-42600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-163600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>63400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-181900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-53200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-67600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-154800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-55700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-69600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-58800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-62800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-56200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-38000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-188900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-139000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-194300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>441900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>29400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-110500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,291 +665,303 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E7" s="2">
         <v>44381</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44290</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44199</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43464</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42736</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>470300</v>
+      </c>
+      <c r="E8" s="3">
         <v>493300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>460200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>474300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>452200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>402300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>405000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>427200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>437900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>435300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>408600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>397800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>411000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>380600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>309200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>308000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>320300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>285800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>309900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E9" s="3">
         <v>163000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>164500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>171800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>165500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>146100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>158000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>175300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>162200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>155200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>148600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>145500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>144700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>145200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>138400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>127800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>132400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>129400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>123400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>140900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>313400</v>
+      </c>
+      <c r="E10" s="3">
         <v>330300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>295700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>302500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>286700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>256200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>247000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>251900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>275700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>280100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>260000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>252300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>255900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>265800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>242200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>181400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>175600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>190900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>162400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>169000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,8 +985,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1038,8 +1051,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,138 +1119,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-10100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>59000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-18400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E15" s="3">
         <v>30800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>31500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>33000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>31000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>31500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>33200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>29100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>33400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>32200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>34000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>31200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>31300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>29200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>30200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,138 +1280,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>390100</v>
+      </c>
+      <c r="E17" s="3">
         <v>384500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>377100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>395800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>370900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>341600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>356200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>391800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>358900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>361900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>342300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>352000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>323200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>339500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>336800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>242700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>246300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>294500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>225100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>230700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E18" s="3">
         <v>108800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>83100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>78600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>81300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>60700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>48800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>79000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>73400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>66300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>77400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>71500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>66500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>61700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>60700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>79200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,333 +1442,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>26200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>451100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E21" s="3">
         <v>139800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>114800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>112700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>114500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>95200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>80900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>95300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>114500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>107200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>102200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>83300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>557600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>105800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>76700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>101800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>92700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>59900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>90300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>110100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E22" s="3">
         <v>28200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>29100</v>
       </c>
       <c r="H22" s="3">
         <v>29100</v>
       </c>
       <c r="I22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="J22" s="3">
         <v>28500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>29600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>30100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>30200</v>
       </c>
       <c r="R22" s="3">
         <v>30200</v>
       </c>
       <c r="S22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="T22" s="3">
         <v>30000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>28900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>29000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>29300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E23" s="3">
         <v>80800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>54500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>47600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>52400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>31400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>498900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>42300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>37600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>31600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>50600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E24" s="3">
         <v>15100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>102800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,138 +1848,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E26" s="3">
         <v>65700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>41400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>39800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>396100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>28900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E27" s="3">
         <v>65700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>38700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>39800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>46100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>396100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>28900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1995,8 +2052,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2030,23 +2090,23 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>3600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>142700</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2054,14 +2114,17 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2188,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2190,138 +2256,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-26200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-451100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E33" s="3">
         <v>65700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>38700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>46100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>391200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>29900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>159300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>28900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2385,143 +2460,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E35" s="3">
         <v>65700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>38700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>46100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>391200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>29900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>159300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>28900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E38" s="2">
         <v>44381</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44290</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44199</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43464</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42736</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2545,8 +2629,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,73 +2655,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>571500</v>
+      </c>
+      <c r="E41" s="3">
         <v>568100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>316500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>307000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>313200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>338000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>294900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>439400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>426200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>414200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>431400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>634800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>194900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>187700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>171400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>186600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>204500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>193200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>198200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2700,73 +2789,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E43" s="3">
         <v>103300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>109900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>134500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>81000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>117500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>105000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>101100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>110600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>109800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>95100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>109900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>114400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>115400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>106600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>90300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>98800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2774,389 +2869,407 @@
         <v>4300</v>
       </c>
       <c r="E44" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="F44" s="3">
         <v>4700</v>
       </c>
       <c r="G44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H44" s="3">
         <v>4600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3500</v>
       </c>
       <c r="L44" s="3">
         <v>3500</v>
       </c>
       <c r="M44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N44" s="3">
         <v>3600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3300</v>
       </c>
       <c r="P44" s="3">
         <v>3300</v>
       </c>
       <c r="Q44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R44" s="3">
         <v>3100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3200</v>
-      </c>
-      <c r="S44" s="3">
-        <v>2900</v>
       </c>
       <c r="T44" s="3">
         <v>2900</v>
       </c>
       <c r="U44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V44" s="3">
         <v>2700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E45" s="3">
         <v>163900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>220000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>266000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>189800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>221000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>211400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>132500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>125800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>141500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>135500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>120800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>117900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>140100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>141700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>115400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>116000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>126800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>152300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>152600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>843500</v>
+      </c>
+      <c r="E46" s="3">
         <v>839500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>641500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>687600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>607700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>697900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>591900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>554000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>673800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>672400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>663800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>665700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>856100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>433400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>442400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>404400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>420900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>440900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>438500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>452500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>346600</v>
+      </c>
+      <c r="E47" s="3">
         <v>346400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>313500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>318900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>308200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>307000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>307200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>304200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>297500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>289500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>284800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>274100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>278700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>281000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>283300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>302700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>271800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>270100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>57000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>66200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1867900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1880300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1906300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1943500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1957800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1975700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1990800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2034300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2050400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2085300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2117900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1213200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1224000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1227000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1245400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1263100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1252200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1254800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1190600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1192300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1961500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1969800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1971000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1976000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1979000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1983100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1989100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2003100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2007300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2013200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2019600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2042000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2052900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2043200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2053800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2064900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2075600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2081100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2056200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2063900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,8 +3333,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3285,73 +3401,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E52" s="3">
         <v>130800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>124400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>113900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>110300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>106600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>102800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>98800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>103500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>99600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>96900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>95800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>95500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>85000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>69700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>61900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>210100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>164300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3415,73 +3537,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5156900</v>
+      </c>
+      <c r="E54" s="3">
         <v>5166900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4956700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5040000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4963000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5070400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4981700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4994500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5136200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5163900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5185700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4292000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4507400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4080200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4109800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4096900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4090300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4108700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3952300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3939300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,8 +3633,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3530,398 +3659,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E57" s="3">
         <v>32400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>22800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>24000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>27600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E58" s="3">
         <v>47300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>43800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>157300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>160900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>33800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>29400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>29000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>24900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>24700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E59" s="3">
         <v>293100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>323400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>341200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>295400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>314700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>247300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>293200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>280300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>291300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>274700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>230800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>283800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>174200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>179300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>176600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>161900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>177800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>407200</v>
+      </c>
+      <c r="E60" s="3">
         <v>372800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>396500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>413300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>360300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>492600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>430800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>349700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>337400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>341300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>323600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>284200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>339100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>252800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>250100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>227200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>234400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>229500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>208600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>230100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2889500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2895200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2707100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2724200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2724800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2728000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2733000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2738400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2742600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2740200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2760200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2752800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2759800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2771700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2777200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2724200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2696500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2699800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2527800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2487600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1317500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1328500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1332400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1352900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1356400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1365700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1366900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1390100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1406600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1434400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1461200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>606600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>625200</v>
       </c>
       <c r="P62" s="3">
         <v>625200</v>
       </c>
       <c r="Q62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="R62" s="3">
         <v>619600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>572300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>696700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>692300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>691000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>693900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3985,8 +4133,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,8 +4201,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4115,73 +4269,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4614200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4596500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4436000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4490400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4441500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4586400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4530600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4478200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4486600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4515800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4545000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3643600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3724100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3649600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3646800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3523700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3627700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3621600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3427500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3411600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,8 +4365,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4270,8 +4431,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4335,8 +4499,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4400,8 +4567,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4465,73 +4635,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E72" s="3">
         <v>303500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>259900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>238700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>215600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>187100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>173400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>185700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>186300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>163200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>154000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>146300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>147000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-224100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-233700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-163300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-305700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-302900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-283900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-290900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4771,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4660,8 +4839,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,73 +4907,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>542800</v>
+      </c>
+      <c r="E76" s="3">
         <v>570400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>520700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>549600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>521500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>484000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>451100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>516400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>649600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>648000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>640700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>648400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>783300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>430500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>463000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>573200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>462600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>487000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>524800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>527700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4855,143 +5043,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E80" s="2">
         <v>44381</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44290</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44199</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43464</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42736</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E81" s="3">
         <v>65700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>38700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>46100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>391200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>29900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>159300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>28900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5015,73 +5212,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E83" s="3">
         <v>30800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>30200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5145,8 +5346,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5210,8 +5414,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5482,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +5550,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5405,73 +5618,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E89" s="3">
         <v>72900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>85800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>78600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>175200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>83400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>92000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>62000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>81200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>79700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>68700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>74900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>56200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>81900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>38700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>51600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5495,73 +5714,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-33500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-82600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5625,8 +5848,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5690,73 +5916,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E94" s="3">
         <v>37000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>414100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>29700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5780,34 +6012,35 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-22100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-20200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-11200</v>
       </c>
       <c r="H96" s="3">
         <v>-11200</v>
       </c>
       <c r="I96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-26800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-23100</v>
       </c>
       <c r="L96" s="3">
         <v>-23100</v>
@@ -5816,37 +6049,40 @@
         <v>-23100</v>
       </c>
       <c r="N96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-19700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-20100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-20400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-16900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-17000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-17200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-17300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-16000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5910,8 +6146,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5975,8 +6214,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6040,199 +6282,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E100" s="3">
         <v>120600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-91700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-42600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-163600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>63400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-181900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-53200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-67600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-154800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-55700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-69600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-58800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-62800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-56200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-38000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-188900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E102" s="3">
         <v>232000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-139000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-194300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>441900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>29400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-15200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-110500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,303 +665,315 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E7" s="2">
         <v>44472</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44381</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44290</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44199</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43464</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42736</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>473200</v>
+      </c>
+      <c r="E8" s="3">
         <v>470300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>493300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>460200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>474300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>452200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>402300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>405000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>427200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>437900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>435300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>408600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>397800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>411000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>380600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>309200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>308000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>320300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>285800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>309900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>170100</v>
+      </c>
+      <c r="E9" s="3">
         <v>156900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>163000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>164500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>171800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>165500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>146100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>158000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>175300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>162200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>155200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>148600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>145500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>144700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>145200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>138400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>127800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>132400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>129400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>123400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>140900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>303100</v>
+      </c>
+      <c r="E10" s="3">
         <v>313400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>330300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>295700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>302500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>286700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>256200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>247000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>251900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>275700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>280100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>260000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>252300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>255900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>265800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>242200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>181400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>175600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>190900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>162400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>169000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +998,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1067,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,8 +1138,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,135 +1150,141 @@
         <v>900</v>
       </c>
       <c r="E14" s="3">
+        <v>900</v>
+      </c>
+      <c r="F14" s="3">
         <v>-10100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>59000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-18400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E15" s="3">
         <v>30900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>30800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>31500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>31000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>31500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>34200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>29100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>33400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>32200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>34000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>31200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>31300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>29200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>30200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,144 +1306,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>396300</v>
+      </c>
+      <c r="E17" s="3">
         <v>390100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>384500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>377100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>395800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>370900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>341600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>356200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>391800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>358900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>361900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>342300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>352000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>323200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>339500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>336800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>242700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>246300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>294500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>225100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>230700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E18" s="3">
         <v>80200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>108800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>83100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>78600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>81300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>60700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>48800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>79000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>73400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>66300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>77400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>71500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>66500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>61700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>25800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>60700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>79200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1443,348 +1475,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>26200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>451100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E21" s="3">
         <v>111300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>139800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>114800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>112700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>114500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>95200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>80900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>95300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>114500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>107200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>102200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>83300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>557600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>105800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>76700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>101800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>92700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>59900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>90300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>110100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E22" s="3">
         <v>26000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>31000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>29100</v>
       </c>
       <c r="I22" s="3">
         <v>29100</v>
       </c>
       <c r="J22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K22" s="3">
         <v>28500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>27900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>29700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>30100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>30200</v>
       </c>
       <c r="S22" s="3">
         <v>30200</v>
       </c>
       <c r="T22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="U22" s="3">
         <v>30000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>28900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>29000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>29300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E23" s="3">
         <v>54400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>80800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>54500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>47600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>31400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>45700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>498900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>42300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>37600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>31600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>50600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>13200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>102800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1851,144 +1899,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E26" s="3">
         <v>41200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>65700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>41400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>38700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>39800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>396100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>22300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>28900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E27" s="3">
         <v>41200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>65700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>38700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>396100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>28900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2055,8 +2112,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2093,23 +2153,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>3600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>142700</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2117,14 +2177,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,8 +2254,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2259,144 +2325,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-26200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-451100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E33" s="3">
         <v>41200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>65700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>38700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>46100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>391200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>29900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>159300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>28900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2463,149 +2538,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E35" s="3">
         <v>41200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>65700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>38700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>46100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>391200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>29900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>159300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>28900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E38" s="2">
         <v>44472</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44381</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44290</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44199</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43464</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42736</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2630,8 +2714,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2656,76 +2741,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>249400</v>
+      </c>
+      <c r="E41" s="3">
         <v>571500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>568100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>316500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>307000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>313200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>338000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>294900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>439400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>426200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>414200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>431400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>634800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>194900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>187700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>171400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>186600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>204500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>193200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>198200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2792,484 +2881,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E43" s="3">
         <v>100300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>103300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>109900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>134500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>81000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>117500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>105000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>101100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>110600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>109800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>95100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>109900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>114400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>115400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>106600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>90300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>98800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="E44" s="3">
         <v>4300</v>
       </c>
       <c r="F44" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="G44" s="3">
         <v>4700</v>
       </c>
       <c r="H44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I44" s="3">
         <v>4600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3500</v>
       </c>
       <c r="M44" s="3">
         <v>3500</v>
       </c>
       <c r="N44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O44" s="3">
         <v>3600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3300</v>
       </c>
       <c r="Q44" s="3">
         <v>3300</v>
       </c>
       <c r="R44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S44" s="3">
         <v>3100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3200</v>
-      </c>
-      <c r="T44" s="3">
-        <v>2900</v>
       </c>
       <c r="U44" s="3">
         <v>2900</v>
       </c>
       <c r="V44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W44" s="3">
         <v>2700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E45" s="3">
         <v>167500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>163900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>220000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>266000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>189800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>221000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>211400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>132500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>125800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>141500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>135500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>120800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>117900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>140100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>141700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>115400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>116000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>126800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>152300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>152600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>592800</v>
+      </c>
+      <c r="E46" s="3">
         <v>843500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>839500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>641500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>687600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>607700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>697900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>591900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>554000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>673800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>672400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>663800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>665700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>856100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>433400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>442400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>404400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>420900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>440900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>438500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>452500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>353800</v>
+      </c>
+      <c r="E47" s="3">
         <v>346600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>346400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>313500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>318900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>308200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>307000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>307200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>304200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>297500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>289500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>284800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>274100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>278700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>281000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>283300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>302700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>271800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>270100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>57000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>66200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1963800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1867900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1880300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1906300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1943500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1957800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1975700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1990800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2034300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2050400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2085300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2117900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1213200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1224000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1227000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1245400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1263100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1252200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1254800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1190600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1192300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2056100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1961500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1969800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1971000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1976000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1979000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1983100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1989100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2003100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2007300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2013200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2019600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2042000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2052900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2043200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2053800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2064900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2075600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2081100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2056200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2063900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3336,8 +3449,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3404,76 +3520,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E52" s="3">
         <v>137500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>130800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>124400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>113900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>110300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>106600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>102800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>98800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>107300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>103500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>99600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>96900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>95800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>95500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>85000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>61900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>61900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>210100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>164300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3540,76 +3662,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5101400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5156900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5166900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4956700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5040000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4963000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5070400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4981700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4994500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5136200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5163900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5185700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4292000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4507400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4080200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4109800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4096900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4090300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4108700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3952300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3939300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3634,8 +3762,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3660,416 +3789,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E57" s="3">
         <v>26500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>22800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>24000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>27600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E58" s="3">
         <v>48700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>43800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>46800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>157300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>160900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>32600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>30200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>29400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>29000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>24900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>24700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E59" s="3">
         <v>332000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>293100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>323400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>341200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>295400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>314700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>247300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>293200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>280300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>291300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>274700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>230800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>283800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>174200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>179300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>176600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>161900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>177800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>426900</v>
+      </c>
+      <c r="E60" s="3">
         <v>407200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>372800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>396500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>413300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>360300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>492600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>430800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>349700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>337400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>341300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>323600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>284200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>339100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>252800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>250100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>227200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>234400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>229500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>208600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>230100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2916000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2889500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2895200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2707100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2724200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2724800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2728000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2733000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2738400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2742600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2740200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2760200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2752800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2759800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2771700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2777200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2724200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2696500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2699800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2527800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2487600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1322100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1317500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1328500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1332400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1352900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1356400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1365700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1366900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1390100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1406600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1434400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1461200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>606600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>625200</v>
       </c>
       <c r="Q62" s="3">
         <v>625200</v>
       </c>
       <c r="R62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="S62" s="3">
         <v>619600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>572300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>696700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>692300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>691000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>693900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4136,8 +4284,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4204,8 +4355,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4272,76 +4426,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4665000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4614200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4596500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4436000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4490400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4441500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4586400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4530600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4478200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4486600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4515800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4545000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3643600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3724100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3649600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3646800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3523700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3627700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3621600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3427500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3411600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4366,8 +4526,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4434,8 +4595,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4502,8 +4666,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4570,8 +4737,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4638,76 +4808,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>344200</v>
+      </c>
+      <c r="E72" s="3">
         <v>318000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>303500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>259900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>238700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>215600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>187100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>173400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>185700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>186300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>163200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>154000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>146300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>147000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-224100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-233700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-163300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-305700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-302900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-283900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-290900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4774,8 +4950,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4842,8 +5021,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4910,76 +5092,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>436400</v>
+      </c>
+      <c r="E76" s="3">
         <v>542800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>570400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>520700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>549600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>521500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>484000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>451100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>516400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>649600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>648000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>640700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>648400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>783300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>430500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>463000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>573200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>462600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>487000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>524800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>527700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5046,149 +5234,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E80" s="2">
         <v>44472</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44381</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44290</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44199</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43464</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42736</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E81" s="3">
         <v>41200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>65700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>38700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>46100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>391200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>29900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>159300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>28900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5213,76 +5410,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E83" s="3">
         <v>30900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>31300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>30200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5349,8 +5550,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5417,8 +5621,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5485,8 +5692,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5553,8 +5763,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5621,76 +5834,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E89" s="3">
         <v>117900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>72900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>85800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>78600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>175200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>49900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>83400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>92000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>62000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>81200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>68700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>74900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>56200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>81900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>38700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>51600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5715,76 +5934,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-82600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5851,8 +6074,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5919,76 +6145,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-169700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>37000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>414100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>29700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6013,37 +6245,38 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-26700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-22100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-20200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-11200</v>
       </c>
       <c r="I96" s="3">
         <v>-11200</v>
       </c>
       <c r="J96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-26800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-23100</v>
       </c>
       <c r="M96" s="3">
         <v>-23100</v>
@@ -6052,37 +6285,40 @@
         <v>-23100</v>
       </c>
       <c r="O96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-19700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-20300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-20400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-16900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-17000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-17200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-17300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-16000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6149,8 +6385,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6217,8 +6456,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6285,208 +6527,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-185300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-86400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>120600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-91700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-42600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-163600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>63400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-181900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-53200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-67600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-62600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-154800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-55700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-69600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-25700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-58800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-62800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-56200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-38000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-188900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-285700</v>
+      </c>
+      <c r="E102" s="3">
         <v>12500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>232000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>23900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-139000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-194300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>441900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>29400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-15200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-17900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-110500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,315 +665,327 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E7" s="2">
         <v>44563</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44472</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44381</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44290</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44199</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43828</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43464</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42918</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42827</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42736</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>488600</v>
+      </c>
+      <c r="E8" s="3">
         <v>473200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>470300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>493300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>460200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>474300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>452200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>402300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>405000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>427200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>437900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>435300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>408600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>397800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>411000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>380600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>309200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>308000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>320300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>285800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>309900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>196900</v>
+      </c>
+      <c r="E9" s="3">
         <v>170100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>156900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>163000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>164500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>171800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>165500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>146100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>158000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>175300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>162200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>155200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>148600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>145500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>144700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>145200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>138400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>127800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>132400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>129400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>123400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>140900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>291700</v>
+      </c>
+      <c r="E10" s="3">
         <v>303100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>313400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>330300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>295700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>302500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>286700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>256200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>247000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>251900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>275700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>280100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>260000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>252300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>255900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>265800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>242200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>181400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>175600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>190900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>162400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>169000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,8 +1011,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,8 +1083,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,150 +1157,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>900</v>
+        <v>-2400</v>
       </c>
       <c r="E14" s="3">
         <v>900</v>
       </c>
       <c r="F14" s="3">
+        <v>900</v>
+      </c>
+      <c r="G14" s="3">
         <v>-10100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>59000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-18400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E15" s="3">
         <v>32300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>30900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>30800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>31500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>31000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>33300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>31500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>34200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>29100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>33400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>32200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>34000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>31200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>31300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>29200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>30200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1307,150 +1332,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>413800</v>
+      </c>
+      <c r="E17" s="3">
         <v>396300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>390100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>384500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>377100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>395800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>370900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>341600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>356200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>391800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>358900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>361900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>342300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>352000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>323200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>339500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>336800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>242700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>246300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>294500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>225100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>230700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E18" s="3">
         <v>76900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>80200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>108800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>83100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>78600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>81300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>60700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>79000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>73400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>66300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>45800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>77400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>71500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>43800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>66500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>61700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>25800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>60700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>79200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1476,363 +1508,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>26200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>451100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E21" s="3">
         <v>109500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>111300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>139800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>114800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>112700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>114500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>95200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>80900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>95300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>114500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>107200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>102200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>83300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>557600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>105800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>76700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>101800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>92700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>59900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>90300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>110100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E22" s="3">
         <v>26200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>31000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>29100</v>
       </c>
       <c r="J22" s="3">
         <v>29100</v>
       </c>
       <c r="K22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="L22" s="3">
         <v>28500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>27900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>29100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>30100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>30200</v>
       </c>
       <c r="T22" s="3">
         <v>30200</v>
       </c>
       <c r="U22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="V22" s="3">
         <v>30000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>28900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>29000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>29300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E23" s="3">
         <v>51000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>54400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>80800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>54500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>47600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>52400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>31400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>45700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>498900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>42300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>37600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>31600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>32100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>50600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>102800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>17300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1902,150 +1950,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E26" s="3">
         <v>52100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>41200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>65700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>41400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>38700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>39800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>31900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>396100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>22300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>28900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E27" s="3">
         <v>52100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>65700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>41400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>38700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>31900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>396100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>28900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2115,31 +2172,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2156,23 +2216,23 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>3600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>142700</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2180,14 +2240,17 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2257,8 +2320,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2328,150 +2394,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-26200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-451100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E33" s="3">
         <v>52100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>65700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>41400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>38700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>391200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>29900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>159300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>22300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>28900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2541,155 +2616,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E35" s="3">
         <v>52100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>65700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>41400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>38700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>391200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>29900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>159300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>22300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>28900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E38" s="2">
         <v>44563</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44472</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44381</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44290</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44199</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43828</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43464</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42918</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42827</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42736</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2715,8 +2799,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2742,79 +2827,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>741200</v>
+      </c>
+      <c r="E41" s="3">
         <v>249400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>571500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>568100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>316500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>307000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>313200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>338000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>294900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>439400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>426200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>414200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>431400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>634800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>194900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>187700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>171400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>186600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>204500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>193200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>198200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2884,79 +2973,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E43" s="3">
         <v>119500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>103300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>109900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>134500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>81000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>117500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>105000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>101100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>110600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>109800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>95100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>109900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>114400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>115400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>106600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>90300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>98800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2964,425 +3059,443 @@
         <v>5900</v>
       </c>
       <c r="E44" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="F44" s="3">
         <v>4300</v>
       </c>
       <c r="G44" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="H44" s="3">
         <v>4700</v>
       </c>
       <c r="I44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J44" s="3">
         <v>4600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3500</v>
       </c>
       <c r="N44" s="3">
         <v>3500</v>
       </c>
       <c r="O44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P44" s="3">
         <v>3600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>3300</v>
       </c>
       <c r="R44" s="3">
         <v>3300</v>
       </c>
       <c r="S44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T44" s="3">
         <v>3100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3200</v>
-      </c>
-      <c r="U44" s="3">
-        <v>2900</v>
       </c>
       <c r="V44" s="3">
         <v>2900</v>
       </c>
       <c r="W44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X44" s="3">
         <v>2700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E45" s="3">
         <v>217900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>167500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>163900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>220000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>266000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>189800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>221000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>211400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>132500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>125800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>141500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>135500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>120800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>117900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>140100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>141700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>115400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>116000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>126800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>152300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>152600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1079800</v>
+      </c>
+      <c r="E46" s="3">
         <v>592800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>843500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>839500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>641500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>687600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>607700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>697900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>591900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>554000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>673800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>672400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>663800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>665700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>856100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>433400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>442400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>404400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>420900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>440900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>438500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>452500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>354200</v>
+      </c>
+      <c r="E47" s="3">
         <v>353800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>346600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>346400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>313500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>318900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>308200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>307000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>307200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>304200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>297500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>289500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>284800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>274100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>278700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>281000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>283300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>302700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>271800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>270100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>57000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>66200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1932300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1963800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1867900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1880300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1906300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1943500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1957800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1975700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1990800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2034300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2050400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2085300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2117900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1213200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1224000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1227000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1245400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1263100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1252200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1254800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1190600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1192300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2048500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2056100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1961500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1969800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1971000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1976000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1979000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1983100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1989100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2003100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2007300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2013200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2019600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2042000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2052900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2043200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2053800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2064900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2075600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2081100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2056200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2063900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3452,8 +3565,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3523,79 +3639,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E52" s="3">
         <v>134900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>137500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>130800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>124400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>113900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>110300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>106600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>102800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>98800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>107300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>103500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>99600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>96900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>95800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>95500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>85000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>61900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>61900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>210100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>164300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3665,79 +3787,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5563100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5101400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5156900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5166900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4956700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5040000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4963000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5070400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4981700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4994500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5136200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5163900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5185700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4292000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4507400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4080200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4109800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4096900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4090300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4108700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3952300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3939300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3763,8 +3891,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3790,434 +3919,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E57" s="3">
         <v>41200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>22800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>25800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>24000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>21900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>27600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E58" s="3">
         <v>39800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>46800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>157300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>160900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>32700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>32600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>30800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>30200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>29400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>29000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>24900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>24700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>328000</v>
+      </c>
+      <c r="E59" s="3">
         <v>346000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>332000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>293100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>323400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>341200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>295400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>314700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>247300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>293200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>280300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>291300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>274700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>230800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>283800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>174200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>179300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>176600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>161900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>177800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>407600</v>
+      </c>
+      <c r="E60" s="3">
         <v>426900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>407200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>372800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>396500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>413300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>360300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>492600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>430800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>349700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>337400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>341300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>323600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>284200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>339100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>252800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>250100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>227200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>234400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>229500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>208600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>230100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3398100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2916000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2889500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2895200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2707100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2724200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2724800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2728000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2733000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2738400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2742600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2740200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2760200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2752800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2759800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2771700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2777200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2724200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2696500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2699800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2527800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2487600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1302800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1322100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1317500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1328500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1332400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1352900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1356400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1365700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1366900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1390100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1406600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1434400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1461200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>606600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>625200</v>
       </c>
       <c r="R62" s="3">
         <v>625200</v>
       </c>
       <c r="S62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="T62" s="3">
         <v>619600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>572300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>696700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>692300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>691000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>693900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4287,8 +4435,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4358,8 +4509,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4429,79 +4583,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5108600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4665000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4614200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4596500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4436000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4490400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4441500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4586400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4530600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4478200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4486600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4515800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4545000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3643600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3724100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3649600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3646800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3523700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3627700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3621600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3427500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3411600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4527,8 +4687,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4598,8 +4759,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4669,8 +4833,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4740,8 +4907,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4811,79 +4981,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>354700</v>
+      </c>
+      <c r="E72" s="3">
         <v>344200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>318000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>303500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>259900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>238700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>215600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>187100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>173400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>185700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>186300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>163200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>154000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>146300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>147000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-224100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-233700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-163300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-305700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-302900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-283900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-290900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4953,8 +5129,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5024,8 +5203,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5095,79 +5277,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>454500</v>
+      </c>
+      <c r="E76" s="3">
         <v>436400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>542800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>570400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>520700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>549600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>521500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>484000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>451100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>516400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>649600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>648000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>640700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>648400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>783300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>430500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>463000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>573200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>462600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>487000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>524800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>527700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5237,155 +5425,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E80" s="2">
         <v>44563</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44472</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44381</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44290</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44199</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43828</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43464</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42918</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42827</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42736</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E81" s="3">
         <v>52100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>65700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>41400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>38700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>391200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>29900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>159300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>22300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>28900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5411,79 +5608,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E83" s="3">
         <v>32300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>34000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>31200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>31300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>30200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5553,8 +5754,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5624,8 +5828,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5695,8 +5902,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5766,8 +5976,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5837,79 +6050,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E89" s="3">
         <v>69100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>117900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>72900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>85800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>78600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>175200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>49900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>51400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>83400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>92000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>62000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>81200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>79700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>68700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>74900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>56200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>81900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>38700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>51600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5935,79 +6154,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-28000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-82600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6077,8 +6300,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6148,79 +6374,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-169700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>37000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>414100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-15100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>29700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6246,40 +6478,41 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-25900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-26700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-22100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-20200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-11200</v>
       </c>
       <c r="J96" s="3">
         <v>-11200</v>
       </c>
       <c r="K96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="L96" s="3">
         <v>-26800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-23100</v>
       </c>
       <c r="N96" s="3">
         <v>-23100</v>
@@ -6288,37 +6521,40 @@
         <v>-23100</v>
       </c>
       <c r="P96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-20100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-20300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-20400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-16900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-17000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-17200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-17300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6388,8 +6624,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6459,8 +6698,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6530,217 +6772,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>452800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-185300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-86400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>120600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-91700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-42600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-163600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>63400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-181900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-53200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-67600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-62600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-154800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-55700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-69600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-25700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-58800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-62800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-56200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-38000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-188900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-285700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>232000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-139000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-194300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>441900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>29400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-15200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-17900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-110500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,327 +665,339 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
         <v>44654</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44563</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44472</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44381</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44290</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44199</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43464</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42736</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>537800</v>
+      </c>
+      <c r="E8" s="3">
         <v>488600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>473200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>470300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>493300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>460200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>474300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>452200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>402300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>405000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>427200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>437900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>435300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>408600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>397800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>411000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>380600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>309200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>308000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>320300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>285800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>309900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>207200</v>
+      </c>
+      <c r="E9" s="3">
         <v>196900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>170100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>156900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>163000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>164500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>171800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>165500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>146100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>158000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>175300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>162200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>155200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>148600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>145500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>144700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>145200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>138400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>127800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>132400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>129400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>123400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>140900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>330600</v>
+      </c>
+      <c r="E10" s="3">
         <v>291700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>303100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>313400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>330300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>295700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>302500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>286700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>256200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>247000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>251900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>275700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>280100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>260000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>252300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>255900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>265800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>242200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>181400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>175600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>190900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>162400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>169000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1012,8 +1024,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1086,8 +1099,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1160,156 +1176,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E14" s="3">
-        <v>900</v>
       </c>
       <c r="F14" s="3">
         <v>900</v>
       </c>
       <c r="G14" s="3">
+        <v>900</v>
+      </c>
+      <c r="H14" s="3">
         <v>-10100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>59000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-18400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E15" s="3">
         <v>33200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>32300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>30900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>30800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>31500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>31000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>33700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>31500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>33200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>34200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>29100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>33400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>32200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>34000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>31200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>31300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>29200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>30200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1333,156 +1358,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>441500</v>
+      </c>
+      <c r="E17" s="3">
         <v>413800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>396300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>390100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>384500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>377100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>395800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>370900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>341600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>356200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>391800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>358900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>361900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>342300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>352000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>323200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>339500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>336800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>242700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>246300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>294500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>225100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>230700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E18" s="3">
         <v>74800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>76900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>80200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>108800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>83100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>78600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>81300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>60700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>48800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>79000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>73400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>66300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>45800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>77400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>71500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>43800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>66500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>61700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>25800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>60700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>79200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1509,378 +1541,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>26200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>451100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>130900</v>
+      </c>
+      <c r="E21" s="3">
         <v>110400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>109500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>111300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>139800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>114800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>112700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>114500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>95200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>80900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>95300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>114500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>107200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>102200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>83300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>557600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>105800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>76700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>101800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>92700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>59900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>90300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>110100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E22" s="3">
         <v>26400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>29100</v>
       </c>
       <c r="K22" s="3">
         <v>29100</v>
       </c>
       <c r="L22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="M22" s="3">
         <v>28500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>27900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>29900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>30100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>30200</v>
       </c>
       <c r="U22" s="3">
         <v>30200</v>
       </c>
       <c r="V22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="W22" s="3">
         <v>30000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>28900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>29000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>29300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E23" s="3">
         <v>50800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>51000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>54400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>80800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>54500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>47600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>52400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>31400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>45700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>39900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>498900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>42300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>37600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>31600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>32100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>50600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E24" s="3">
         <v>13400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>102800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>17300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1953,156 +2001,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E26" s="3">
         <v>37400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>52100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>41200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>65700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>41400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>31900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>396100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>30700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>22300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>28900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E27" s="3">
         <v>37400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>52100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>65700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>41400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>31900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>396100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>22300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>28900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2175,8 +2232,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2201,8 +2261,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2219,23 +2279,23 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>3600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>142700</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2243,14 +2303,17 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2323,8 +2386,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2397,156 +2463,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-26200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-451100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E33" s="3">
         <v>37400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>52100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>65700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>41400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>38700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>46100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>391200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>29900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>159300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>22300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>28900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2619,161 +2694,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E35" s="3">
         <v>37400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>52100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>65700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>41400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>38700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>46100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>391200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>29900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>159300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>22300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>28900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
         <v>44654</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44563</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44472</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44381</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44290</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44199</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43464</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42736</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2800,8 +2884,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2828,82 +2913,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700800</v>
+      </c>
+      <c r="E41" s="3">
         <v>741200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>249400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>571500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>568100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>316500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>307000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>313200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>338000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>294900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>439400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>426200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>414200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>431400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>634800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>194900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>187700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>171400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>186600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>204500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>193200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>198200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2976,526 +3065,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E43" s="3">
         <v>118200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>119500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>103300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>109900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>134500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>81000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>117500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>105000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>101100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>110600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>109800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>95100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>109900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>114400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>115400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>106600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>90300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>98800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5900</v>
+        <v>6500</v>
       </c>
       <c r="E44" s="3">
         <v>5900</v>
       </c>
       <c r="F44" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="G44" s="3">
         <v>4300</v>
       </c>
       <c r="H44" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="I44" s="3">
         <v>4700</v>
       </c>
       <c r="J44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K44" s="3">
         <v>4600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3500</v>
       </c>
       <c r="O44" s="3">
         <v>3500</v>
       </c>
       <c r="P44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q44" s="3">
         <v>3600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3700</v>
-      </c>
-      <c r="R44" s="3">
-        <v>3300</v>
       </c>
       <c r="S44" s="3">
         <v>3300</v>
       </c>
       <c r="T44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U44" s="3">
         <v>3100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3200</v>
-      </c>
-      <c r="V44" s="3">
-        <v>2900</v>
       </c>
       <c r="W44" s="3">
         <v>2900</v>
       </c>
       <c r="X44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y44" s="3">
         <v>2700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E45" s="3">
         <v>214500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>217900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>167500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>163900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>220000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>266000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>189800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>221000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>211400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>132500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>125800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>141500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>135500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>120800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>117900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>140100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>141700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>115400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>116000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>126800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>152300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>152600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1043900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1079800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>592800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>843500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>839500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>641500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>687600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>607700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>697900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>591900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>554000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>673800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>672400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>663800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>665700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>856100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>433400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>442400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>404400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>420900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>440900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>438500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>452500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E47" s="3">
         <v>354200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>353800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>346600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>346400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>313500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>318900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>308200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>307000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>307200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>304200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>297500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>289500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>284800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>274100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>278700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>281000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>283300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>302700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>271800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>270100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>57000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>66200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1912900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1932300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1963800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1867900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1880300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1906300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1943500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1957800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1975700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1990800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2034300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2050400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2085300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2117900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1213200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1224000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1227000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1245400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1263100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1252200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1254800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1190600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1192300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2037500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2048500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2056100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1961500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1969800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1971000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1976000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1979000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1983100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1989100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2003100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2007300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2013200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2019600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2042000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2052900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2043200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2053800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2064900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2075600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2081100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2056200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2063900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3568,8 +3681,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3642,82 +3758,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E52" s="3">
         <v>148200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>134900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>137500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>130800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>124400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>113900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>110300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>106600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>102800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>98800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>107300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>103500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>99600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>96900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>95800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>95500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>85000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>61900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>69700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>61900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>210100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>164300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3790,82 +3912,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5515600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5563100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5101400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5156900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5166900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4956700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5040000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4963000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5070400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4981700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4994500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5136200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5163900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5185700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4292000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4507400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4080200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4109800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4096900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4090300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4108700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3952300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3939300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3892,8 +4020,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3920,452 +4049,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E57" s="3">
         <v>33200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>22800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>25800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>24000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>21900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>27600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E58" s="3">
         <v>46500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>39800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>48700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>46800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>157300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>160900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>32700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>32600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>30800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>30200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>29400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>29000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>24900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>24700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>316400</v>
+      </c>
+      <c r="E59" s="3">
         <v>328000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>346000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>332000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>293100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>323400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>341200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>295400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>314700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>247300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>293200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>280300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>291300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>274700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>230800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>283800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>174200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>179300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>176600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>161900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>177800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>398800</v>
+      </c>
+      <c r="E60" s="3">
         <v>407600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>426900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>407200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>372800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>396500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>413300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>360300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>492600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>430800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>349700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>337400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>341300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>323600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>284200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>339100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>252800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>250100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>227200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>234400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>229500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>208600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>230100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3399900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3398100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2916000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2889500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2895200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2707100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2724200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2724800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2728000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2733000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2738400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2742600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2740200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2760200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2752800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2759800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2771700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2777200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2724200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2696500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2699800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2527800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2487600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1294000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1302800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1322100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1317500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1328500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1332400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1352900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1356400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1365700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1366900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1390100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1406600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1434400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1461200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>606600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>625200</v>
       </c>
       <c r="S62" s="3">
         <v>625200</v>
       </c>
       <c r="T62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="U62" s="3">
         <v>619600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>572300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>696700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>692300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>691000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>693900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4438,8 +4586,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4512,8 +4663,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4586,82 +4740,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5092700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5108600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4665000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4614200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4596500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4436000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4490400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4441500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4586400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4530600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4478200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4486600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4515800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4545000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3643600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3724100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3649600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3646800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3523700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3627700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3621600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3427500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3411600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4688,8 +4848,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4762,8 +4923,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4836,8 +5000,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4910,8 +5077,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4984,82 +5154,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>376200</v>
+      </c>
+      <c r="E72" s="3">
         <v>354700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>344200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>318000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>303500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>259900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>238700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>215600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>187100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>173400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>185700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>186300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>163200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>154000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>146300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>147000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-224100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-233700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-163300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-305700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-302900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-283900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-290900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5132,8 +5308,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5206,8 +5385,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5280,82 +5462,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>422900</v>
+      </c>
+      <c r="E76" s="3">
         <v>454500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>436400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>542800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>570400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>520700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>549600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>521500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>484000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>451100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>516400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>649600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>648000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>640700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>648400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>783300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>430500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>463000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>573200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>462600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>487000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>524800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>527700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5428,161 +5616,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
         <v>44654</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44563</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44472</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44381</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44290</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44199</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43464</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42736</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E81" s="3">
         <v>37400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>52100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>65700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>41400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>38700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>46100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>391200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>29900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>159300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>22300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>28900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5609,82 +5806,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E83" s="3">
         <v>33200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>33400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>31200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>31300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>29200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>30200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5757,8 +5958,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5831,8 +6035,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5905,8 +6112,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5979,8 +6189,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6053,82 +6266,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E89" s="3">
         <v>21000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>69100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>117900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>72900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>85800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>78600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>175200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>49900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>51400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>83400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>92000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>62000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>81200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>79700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>68700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>74900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>56200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>81900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>38700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>51600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6155,82 +6374,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-82600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6303,8 +6526,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6377,82 +6603,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-169700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>37000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>414100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>29700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6479,43 +6711,44 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-26900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-25900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-26700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-22100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-20200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-11200</v>
       </c>
       <c r="K96" s="3">
         <v>-11200</v>
       </c>
       <c r="L96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="M96" s="3">
         <v>-26800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-23100</v>
       </c>
       <c r="O96" s="3">
         <v>-23100</v>
@@ -6524,37 +6757,40 @@
         <v>-23100</v>
       </c>
       <c r="Q96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="R96" s="3">
         <v>-19700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-20100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-20300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-20400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-16900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-17000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-17200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6627,8 +6863,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6701,8 +6940,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6775,226 +7017,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="E100" s="3">
         <v>452800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-185300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-86400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>120600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-91700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-42600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-163600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>63400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-181900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-53200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-67600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-154800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-55700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-69600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-25700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-58800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-62800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-56200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-188900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E102" s="3">
         <v>461000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-285700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>232000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-139000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-194300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>441900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>29400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-15200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-17900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-110500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,339 +665,351 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44563</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44381</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44290</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44199</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43464</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42736</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>532600</v>
+      </c>
+      <c r="E8" s="3">
         <v>537800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>488600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>473200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>470300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>493300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>460200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>474300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>452200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>402300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>405000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>427200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>437900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>435300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>408600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>397800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>411000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>380600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>309200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>308000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>320300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>285800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>309900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E9" s="3">
         <v>207200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>196900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>170100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>156900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>163000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>164500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>171800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>165500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>146100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>158000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>175300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>162200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>155200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>148600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>145500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>144700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>145200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>138400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>127800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>132400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>129400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>123400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>140900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>323700</v>
+      </c>
+      <c r="E10" s="3">
         <v>330600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>291700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>303100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>313400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>330300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>295700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>302500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>286700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>256200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>247000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>251900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>275700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>280100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>260000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>252300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>255900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>265800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>242200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>181400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>175600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>190900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>162400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>169000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1025,8 +1037,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,8 +1115,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,162 +1195,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2400</v>
-      </c>
-      <c r="F14" s="3">
-        <v>900</v>
       </c>
       <c r="G14" s="3">
         <v>900</v>
       </c>
       <c r="H14" s="3">
+        <v>900</v>
+      </c>
+      <c r="I14" s="3">
         <v>-10100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>59000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-18400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E15" s="3">
         <v>33400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>33200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>32300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>30900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>30800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>31500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>31000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>31500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>33200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>34200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>29100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>33400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>32200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>34000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>31200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>31300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>29200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>30200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1359,162 +1384,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>434400</v>
+      </c>
+      <c r="E17" s="3">
         <v>441500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>413800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>396300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>390100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>384500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>377100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>395800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>370900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>341600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>356200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>391800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>358900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>361900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>342300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>352000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>323200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>339500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>336800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>242700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>246300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>294500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>225100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>230700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E18" s="3">
         <v>96300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>74800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>76900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>80200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>108800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>83100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>78600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>81300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>60700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>48800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>79000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>73400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>66300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>45800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>77400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>71500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>66500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>61700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>25800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>60700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>79200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1542,393 +1574,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>26200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>451100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>136200</v>
+      </c>
+      <c r="E21" s="3">
         <v>130900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>110400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>109500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>111300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>139800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>114800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>112700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>114500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>95200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>80900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>95300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>114500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>107200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>102200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>83300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>557600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>105800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>76700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>101800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>92700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>59900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>90300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>110100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E22" s="3">
         <v>32100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>31000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>29100</v>
       </c>
       <c r="L22" s="3">
         <v>29100</v>
       </c>
       <c r="M22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="N22" s="3">
         <v>28500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>27900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>29600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>30100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>30200</v>
       </c>
       <c r="V22" s="3">
         <v>30200</v>
       </c>
       <c r="W22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="X22" s="3">
         <v>30000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>28900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>29000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>29300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E23" s="3">
         <v>65400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>50800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>54400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>80800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>54500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>47600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>31400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>53300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>45700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>39900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>498900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>42300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>37600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>31600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>32100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>50600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E24" s="3">
         <v>17200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>102800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>17300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>21700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2004,162 +2052,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E26" s="3">
         <v>48200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>52100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>41200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>65700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>41400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>38700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>396100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>30700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>22300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>28900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E27" s="3">
         <v>48200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>52100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>41200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>65700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>41400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>396100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>22300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>28900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2235,8 +2292,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2264,8 +2324,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2282,23 +2342,23 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>3600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>142700</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2306,14 +2366,17 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2389,8 +2452,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2466,162 +2532,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-26200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-451100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E33" s="3">
         <v>48200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>52100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>41200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>65700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>41400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>38700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>391200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>29900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>159300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>28900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2697,167 +2772,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E35" s="3">
         <v>48200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>52100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>41200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>65700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>41400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>38700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>391200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>29900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>159300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>28900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44563</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44381</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44290</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44199</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43464</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42736</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2885,8 +2969,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2914,85 +2999,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>731800</v>
+      </c>
+      <c r="E41" s="3">
         <v>700800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>741200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>249400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>571500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>568100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>316500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>307000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>313200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>338000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>294900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>439400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>426200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>414200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>431400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>634800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>194900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>187700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>171400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>186600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>204500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>193200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>198200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3068,547 +3157,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E43" s="3">
         <v>115400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>118200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>119500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>103300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>109900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>134500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>81000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>117500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>105000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>101100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>110600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>109800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>95100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>109900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>114400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>115400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>106600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>90300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>98800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E44" s="3">
         <v>6500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5900</v>
       </c>
       <c r="F44" s="3">
         <v>5900</v>
       </c>
       <c r="G44" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="H44" s="3">
         <v>4300</v>
       </c>
       <c r="I44" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="J44" s="3">
         <v>4700</v>
       </c>
       <c r="K44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L44" s="3">
         <v>4600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3500</v>
       </c>
       <c r="P44" s="3">
         <v>3500</v>
       </c>
       <c r="Q44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R44" s="3">
         <v>3600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3700</v>
-      </c>
-      <c r="S44" s="3">
-        <v>3300</v>
       </c>
       <c r="T44" s="3">
         <v>3300</v>
       </c>
       <c r="U44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V44" s="3">
         <v>3100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3200</v>
-      </c>
-      <c r="W44" s="3">
-        <v>2900</v>
       </c>
       <c r="X44" s="3">
         <v>2900</v>
       </c>
       <c r="Y44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z44" s="3">
         <v>2700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>213800</v>
+      </c>
+      <c r="E45" s="3">
         <v>221300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>214500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>217900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>167500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>163900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>220000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>266000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>189800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>221000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>211400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>132500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>125800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>141500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>135500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>120800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>117900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>140100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>141700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>115400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>116000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>126800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>152300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>152600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1094600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1043900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1079800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>592800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>843500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>839500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>641500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>687600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>607700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>697900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>591900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>554000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>673800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>672400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>663800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>665700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>856100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>433400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>442400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>404400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>420900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>440900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>438500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>452500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>356100</v>
+      </c>
+      <c r="E47" s="3">
         <v>362600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>354200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>353800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>346600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>346400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>313500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>318900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>308200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>307000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>307200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>304200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>297500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>289500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>284800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>274100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>278700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>281000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>283300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>302700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>271800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>270100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>57000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>66200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1885500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1912900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1932300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1963800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1867900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1880300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1906300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1943500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1957800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1975700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1990800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2034300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2050400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2085300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2117900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1213200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1224000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1227000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1245400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1263100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1252200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1254800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1190600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1192300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2025200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2037500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2048500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2056100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1961500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1969800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1971000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1976000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1979000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1983100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1989100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2003100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2007300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2013200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2019600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2042000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2052900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2043200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2053800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2064900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2075600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2081100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2056200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2063900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3684,8 +3797,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3761,85 +3877,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>163600</v>
+      </c>
+      <c r="E52" s="3">
         <v>158700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>148200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>134900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>137500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>130800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>124400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>113900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>110300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>106600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>102800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>98800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>107300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>103500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>99600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>96900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>95800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>95500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>85000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>61900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>69700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>61900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>210100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>164300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3915,85 +4037,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5525000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5515600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5563100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5101400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5156900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5166900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4956700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5040000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4963000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5070400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4981700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4994500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5136200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5163900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5185700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4292000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4507400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4080200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4109800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4096900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4090300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4108700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3952300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3939300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4021,8 +4149,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4050,470 +4179,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E57" s="3">
         <v>36200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>23800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>21300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>22800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>25800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>24000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>21900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>27600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E58" s="3">
         <v>46300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>46500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>39800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>46800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>157300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>160900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>32700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>32600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>30800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>30200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>29400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>29000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>24900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>24700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>336900</v>
+      </c>
+      <c r="E59" s="3">
         <v>316400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>328000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>346000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>332000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>293100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>323400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>341200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>295400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>314700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>247300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>293200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>280300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>291300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>274700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>230800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>283800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>174200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>179300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>176600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>161900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>177800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>418400</v>
+      </c>
+      <c r="E60" s="3">
         <v>398800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>407600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>426900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>407200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>372800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>396500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>413300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>360300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>492600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>430800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>349700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>337400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>341300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>323600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>284200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>339100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>252800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>250100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>227200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>234400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>229500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>208600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>230100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3395000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3399900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3398100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2916000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2889500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2895200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2707100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2724200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2724800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2728000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2733000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2738400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2742600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2740200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2760200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2752800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2759800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2771700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2777200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2724200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2696500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2699800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2527800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2487600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1274200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1294000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1302800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1322100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1317500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1328500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1332400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1352900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1356400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1365700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1366900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1390100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1406600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1434400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1461200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>606600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>625200</v>
       </c>
       <c r="T62" s="3">
         <v>625200</v>
       </c>
       <c r="U62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="V62" s="3">
         <v>619600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>572300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>696700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>692300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>691000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>693900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4589,8 +4737,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4666,8 +4817,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4743,85 +4897,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5087600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5092700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5108600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4665000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4614200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4596500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4436000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4490400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4441500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4586400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4530600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4478200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4486600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4515800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4545000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3643600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3724100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3649600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3646800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3523700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3627700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3621600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3427500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3411600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4849,8 +5009,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4926,8 +5087,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5003,8 +5167,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5080,8 +5247,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5157,85 +5327,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>400100</v>
+      </c>
+      <c r="E72" s="3">
         <v>376200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>354700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>344200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>318000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>303500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>259900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>238700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>215600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>187100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>173400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>185700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>186300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>163200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>154000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>146300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>147000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-224100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-233700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-163300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-305700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-302900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-283900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-290900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5311,8 +5487,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5388,8 +5567,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5465,85 +5647,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>437400</v>
+      </c>
+      <c r="E76" s="3">
         <v>422900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>454500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>436400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>542800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>570400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>520700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>549600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>521500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>484000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>451100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>516400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>649600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>648000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>640700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>648400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>783300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>430500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>463000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>573200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>462600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>487000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>524800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>527700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5619,167 +5807,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44563</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44381</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44290</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44199</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43464</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42736</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E81" s="3">
         <v>48200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>52100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>41200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>65700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>41400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>38700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>391200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>29900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>159300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>28900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5807,85 +6004,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E83" s="3">
         <v>33400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>33400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>32200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>34000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>31200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>31300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>29200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>30200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5961,8 +6162,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6038,8 +6242,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6115,8 +6322,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6192,8 +6402,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6269,85 +6482,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E89" s="3">
         <v>77200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>69100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>117900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>72900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>85800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>78600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>175200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>49900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>51400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>83400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>92000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>62000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>81200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>79700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>68700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>74900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>56200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>81900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>38700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>51600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6375,85 +6594,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-28000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-82600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6529,8 +6752,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6606,85 +6832,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-169700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>37000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>414100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>29700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6712,8 +6944,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6721,37 +6954,37 @@
         <v>-26600</v>
       </c>
       <c r="E96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-26900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-25900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-26700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-22100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-20200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-11200</v>
       </c>
       <c r="L96" s="3">
         <v>-11200</v>
       </c>
       <c r="M96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="N96" s="3">
         <v>-26800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-23100</v>
       </c>
       <c r="P96" s="3">
         <v>-23100</v>
@@ -6760,37 +6993,40 @@
         <v>-23100</v>
       </c>
       <c r="R96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="S96" s="3">
         <v>-19700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-20100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-20300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-20400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-16900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-17000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-17200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6866,8 +7102,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6943,8 +7182,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7020,235 +7262,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-90100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>452800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-185300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-86400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>120600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-91700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-42600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-163600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>63400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-181900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-53200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-67600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-154800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-55700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-69600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-25700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-58800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-62800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-56200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-188900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>461000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-285700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>232000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-139000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-194300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>441900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>29400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-15200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-17900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-110500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,351 +665,363 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="2">
         <v>44836</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44745</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44654</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44563</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44472</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44381</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44290</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44199</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43828</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43464</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42918</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42827</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42736</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>536500</v>
+      </c>
+      <c r="E8" s="3">
         <v>532600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>537800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>488600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>473200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>470300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>493300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>460200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>474300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>452200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>402300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>405000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>427200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>437900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>435300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>408600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>397800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>411000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>380600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>309200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>308000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>320300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>285800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>309900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>208900</v>
+        <v>199400</v>
       </c>
       <c r="E9" s="3">
-        <v>207200</v>
+        <v>201500</v>
       </c>
       <c r="F9" s="3">
-        <v>196900</v>
+        <v>199700</v>
       </c>
       <c r="G9" s="3">
+        <v>189600</v>
+      </c>
+      <c r="H9" s="3">
         <v>170100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>156900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>163000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>164500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>171800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>165500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>146100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>158000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>175300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>162200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>155200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>148600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>145500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>144700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>145200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>138400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>127800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>132400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>129400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>123400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>140900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>323700</v>
+        <v>337100</v>
       </c>
       <c r="E10" s="3">
-        <v>330600</v>
+        <v>331100</v>
       </c>
       <c r="F10" s="3">
-        <v>291700</v>
+        <v>338100</v>
       </c>
       <c r="G10" s="3">
+        <v>299000</v>
+      </c>
+      <c r="H10" s="3">
         <v>303100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>313400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>330300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>295700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>302500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>286700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>256200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>247000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>251900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>275700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>280100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>260000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>252300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>255900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>265800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>242200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>181400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>175600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>190900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>162400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>169000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1038,8 +1050,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1118,8 +1131,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1198,168 +1214,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>600</v>
+        <v>4500</v>
       </c>
       <c r="E14" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>900</v>
       </c>
       <c r="H14" s="3">
         <v>900</v>
       </c>
       <c r="I14" s="3">
+        <v>900</v>
+      </c>
+      <c r="J14" s="3">
         <v>-10100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>59000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-18400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35100</v>
+        <v>32500</v>
       </c>
       <c r="E15" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F15" s="3">
         <v>33400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>33200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>32300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>30900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>30800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>31500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>31000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>33300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>31500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>33200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>34200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>29100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>33400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>32200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>34000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>31200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>31300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>29200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>30200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1385,168 +1410,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>452500</v>
+      </c>
+      <c r="E17" s="3">
         <v>434400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>441500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>413800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>396300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>390100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>384500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>377100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>395800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>370900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>341600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>356200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>391800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>358900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>361900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>342300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>352000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>323200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>339500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>336800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>242700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>246300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>294500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>225100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>230700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E18" s="3">
         <v>98200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>96300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>74800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>76900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>80200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>108800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>83100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>81300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>60700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>48800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>79000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>73400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>66300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>45800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>77400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>71500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>43800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>66500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>61700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>25800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>60700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>79200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1575,168 +1607,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>26200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>451100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>136200</v>
+        <v>122600</v>
       </c>
       <c r="E21" s="3">
+        <v>135300</v>
+      </c>
+      <c r="F21" s="3">
         <v>130900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>110400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>109500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>111300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>139800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>114800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>112700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>114500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>95200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>80900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>95300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>114500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>107200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>102200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>83300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>557600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>105800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>76700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>101800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>92700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>59900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>90300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>110100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1744,239 +1783,248 @@
         <v>31900</v>
       </c>
       <c r="E22" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F22" s="3">
         <v>32100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>29100</v>
       </c>
       <c r="M22" s="3">
         <v>29100</v>
       </c>
       <c r="N22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="O22" s="3">
         <v>28500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>29000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>27900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>29700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>29600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>30100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>30200</v>
       </c>
       <c r="W22" s="3">
         <v>30200</v>
       </c>
       <c r="X22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="Y22" s="3">
         <v>30000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>28900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>29000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>29300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E23" s="3">
         <v>69100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>65400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>50800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>51000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>54400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>80800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>54500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>31400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>53300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>45700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>39900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>498900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>42300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>37600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>31600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>32100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>50600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E24" s="3">
         <v>18600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>102800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-2200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>17300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>21700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2055,168 +2103,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E26" s="3">
         <v>50500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>52100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>41200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>65700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>41400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>31900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>396100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>30700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>14300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>22300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>28900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E27" s="3">
         <v>50500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>37400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>52100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>41200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>65700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>41400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>31900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>396100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>14300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>22300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>28900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2295,8 +2352,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2327,8 +2387,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2345,23 +2405,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-4900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>3600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>142700</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2369,14 +2429,17 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2455,8 +2518,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2535,168 +2601,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-26200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-451100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E33" s="3">
         <v>50500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>48200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>37400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>52100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>41200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>65700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>41400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>46100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>31900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>391200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>29900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>159300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>14300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>22300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>28900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2775,173 +2850,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E35" s="3">
         <v>50500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>48200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>37400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>52100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>41200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>65700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>41400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>46100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>31900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>391200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>29900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>159300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>14300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>22300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>28900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E38" s="2">
         <v>44836</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44745</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44654</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44563</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44472</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44381</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44290</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44199</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43828</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43464</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42918</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42827</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42736</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2970,8 +3054,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3000,88 +3085,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>745900</v>
+      </c>
+      <c r="E41" s="3">
         <v>731800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>741200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>249400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>571500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>568100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>316500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>307000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>313200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>338000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>294900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>439400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>426200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>414200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>431400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>634800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>194900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>187700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>171400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>186600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>204500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>193200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>198200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3160,568 +3249,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E43" s="3">
         <v>142400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>115400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>118200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>119500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>103300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>109900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>134500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>81000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>117500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>105000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>101100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>110600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>109800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>100100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>95100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>109900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>114400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>115400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>106600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>90300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>98800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E44" s="3">
         <v>6600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>5900</v>
       </c>
       <c r="G44" s="3">
         <v>5900</v>
       </c>
       <c r="H44" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="I44" s="3">
         <v>4300</v>
       </c>
       <c r="J44" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="K44" s="3">
         <v>4700</v>
       </c>
       <c r="L44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M44" s="3">
         <v>4600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3900</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3500</v>
       </c>
       <c r="Q44" s="3">
         <v>3500</v>
       </c>
       <c r="R44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S44" s="3">
         <v>3600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3700</v>
-      </c>
-      <c r="T44" s="3">
-        <v>3300</v>
       </c>
       <c r="U44" s="3">
         <v>3300</v>
       </c>
       <c r="V44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W44" s="3">
         <v>3100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3200</v>
-      </c>
-      <c r="X44" s="3">
-        <v>2900</v>
       </c>
       <c r="Y44" s="3">
         <v>2900</v>
       </c>
       <c r="Z44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA44" s="3">
         <v>2700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>188800</v>
+      </c>
+      <c r="E45" s="3">
         <v>213800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>221300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>214500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>217900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>167500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>163900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>220000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>266000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>189800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>221000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>211400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>132500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>125800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>141500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>135500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>120800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>117900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>140100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>141700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>115400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>116000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>126800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>152300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>152600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1058300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1094600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1043900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1079800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>592800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>843500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>839500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>641500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>687600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>607700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>697900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>591900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>554000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>673800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>672400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>663800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>665700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>856100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>433400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>442400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>404400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>420900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>440900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>438500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>452500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>363400</v>
+      </c>
+      <c r="E47" s="3">
         <v>356100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>362600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>354200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>353800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>346600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>346400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>313500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>318900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>308200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>307000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>307200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>304200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>297500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>289500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>284800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>274100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>278700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>281000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>283300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>302700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>271800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>270100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>57000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>66200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1884800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1885500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1912900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1932300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1963800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1867900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1880300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1906300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1943500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1957800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1975700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1990800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2034300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2050400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2085300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2117900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1213200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1224000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1227000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1245400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1263100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1252200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1254800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1190600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1192300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2021900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2025200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2037500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2048500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2056100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1961500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1969800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1971000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1976000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1979000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1983100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1989100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2003100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2007300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2013200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2019600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2042000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2052900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2043200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2053800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2064900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2075600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2081100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2056200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2063900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3800,8 +3913,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3880,88 +3996,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E52" s="3">
         <v>163600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>158700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>148200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>134900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>137500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>130800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>124400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>113900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>110300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>106600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>102800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>98800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>107300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>103500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>99600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>96900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>95800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>95500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>85000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>61900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>69700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>61900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>210100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>164300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4040,88 +4162,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5499300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5525000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5515600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5563100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5101400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5156900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5166900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4956700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5040000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4963000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5070400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4981700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4994500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5136200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5163900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5185700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4292000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4507400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4080200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4109800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4096900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4090300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4108700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3952300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3939300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4150,8 +4278,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4180,488 +4309,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E57" s="3">
         <v>34700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>22700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>23800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>24100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>22800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>25800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>24000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>21900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>27600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E58" s="3">
         <v>46800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>46300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>46500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>39800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>48700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>46800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>157300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>160900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>32700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>32600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>30800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>30200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>29400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>29000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>24900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>24700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>296400</v>
+      </c>
+      <c r="E59" s="3">
         <v>336900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>316400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>328000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>346000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>332000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>293100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>323400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>341200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>295400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>314700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>247300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>293200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>280300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>291300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>274700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>230800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>283800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>174200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>179300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>176600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>161900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>177800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E60" s="3">
         <v>418400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>398800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>407600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>426900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>407200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>372800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>396500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>413300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>360300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>492600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>430800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>349700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>337400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>341300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>323600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>284200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>339100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>252800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>250100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>227200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>234400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>229500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>208600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>230100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3394100</v>
+      </c>
+      <c r="E61" s="3">
         <v>3395000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3399900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3398100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2916000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2889500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2895200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2707100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2724200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2724800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2728000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2733000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2738400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2742600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2740200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2760200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2752800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2759800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2771700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2777200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2724200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2696500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2699800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2527800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2487600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1251600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1274200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1294000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1302800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1322100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1317500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1328500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1332400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1352900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1356400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1365700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1366900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1390100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1406600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1434400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1461200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>606600</v>
-      </c>
-      <c r="T62" s="3">
-        <v>625200</v>
       </c>
       <c r="U62" s="3">
         <v>625200</v>
       </c>
       <c r="V62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="W62" s="3">
         <v>619600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>572300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>696700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>692300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>691000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>693900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4740,8 +4888,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4820,8 +4971,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4900,88 +5054,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5033600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5087600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5092700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5108600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4665000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4614200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4596500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4436000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4490400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4441500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4586400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4530600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4478200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4486600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4515800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4545000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3643600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3724100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3649600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3646800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3523700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3627700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3621600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3427500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3411600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5010,8 +5170,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5090,8 +5251,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5170,8 +5334,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5250,8 +5417,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5330,88 +5500,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>414700</v>
+      </c>
+      <c r="E72" s="3">
         <v>400100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>376200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>354700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>344200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>318000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>303500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>259900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>238700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>215600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>187100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>173400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>185700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>186300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>163200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>154000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>146300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>147000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-224100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-233700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-163300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-305700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-302900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-283900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-290900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5490,8 +5666,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5570,8 +5749,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5650,88 +5832,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>465700</v>
+      </c>
+      <c r="E76" s="3">
         <v>437400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>422900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>454500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>436400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>542800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>570400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>520700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>549600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>521500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>484000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>451100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>516400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>649600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>648000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>640700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>648400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>783300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>430500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>463000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>573200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>462600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>487000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>524800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>527700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5810,173 +5998,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E80" s="2">
         <v>44836</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44745</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44654</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44563</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44472</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44381</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44290</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44199</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43828</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43464</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42918</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42827</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42736</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E81" s="3">
         <v>50500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>48200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>37400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>52100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>41200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>65700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>41400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>46100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>31900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>391200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>29900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>159300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>14300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>22300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>28900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6005,88 +6202,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35100</v>
+        <v>32500</v>
       </c>
       <c r="E83" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F83" s="3">
         <v>33400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>33400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>34000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>31200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>31300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>29200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>30200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6165,8 +6366,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6245,8 +6449,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6325,8 +6532,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6405,8 +6615,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6485,88 +6698,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E89" s="3">
         <v>84400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>77200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>69100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>117900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>72900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>85800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>78600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>175200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>49900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>51400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>83400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>92000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>62000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>81200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>79700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>68700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>74900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>56200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>81900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>38700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>51600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6595,88 +6814,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-28000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-21600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-14800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-82600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6755,8 +6978,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6835,88 +7061,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-169700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>37000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>414100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-15100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>29700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6945,8 +7177,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6957,37 +7190,37 @@
         <v>-26600</v>
       </c>
       <c r="F96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-26900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-25900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-26700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-22100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-20200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-11200</v>
       </c>
       <c r="M96" s="3">
         <v>-11200</v>
       </c>
       <c r="N96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="O96" s="3">
         <v>-26800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-23100</v>
       </c>
       <c r="Q96" s="3">
         <v>-23100</v>
@@ -6996,37 +7229,40 @@
         <v>-23100</v>
       </c>
       <c r="S96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="T96" s="3">
         <v>-19700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-20100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-20300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-20400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-16900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-17200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-17300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7105,8 +7341,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7185,8 +7424,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7265,244 +7507,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-38200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-90100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>452800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-185300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-86400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>120600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-91700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-42600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-163600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>63400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-181900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-67600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-62600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-154800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-55700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-69600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-25700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-58800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-62800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-56200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-188900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E102" s="3">
         <v>24200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>461000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-285700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>232000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-139000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-194300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>441900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>29400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-15200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-110500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,363 +665,375 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
         <v>44927</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44836</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44745</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44654</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44563</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44472</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44381</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44290</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44199</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43828</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43464</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42918</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42827</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42736</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>528800</v>
+      </c>
+      <c r="E8" s="3">
         <v>536500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>532600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>537800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>488600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>473200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>470300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>493300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>460200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>474300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>452200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>402300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>405000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>427200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>437900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>435300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>408600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>397800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>411000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>380600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>309200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>308000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>320300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>285800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>309900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>201900</v>
+      </c>
+      <c r="E9" s="3">
         <v>199400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>201500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>199700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>189600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>170100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>156900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>163000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>164500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>171800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>165500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>146100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>158000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>175300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>162200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>155200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>148600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>145500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>144700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>145200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>138400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>127800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>132400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>129400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>123400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>140900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>326900</v>
+      </c>
+      <c r="E10" s="3">
         <v>337100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>331100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>338100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>299000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>303100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>313400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>330300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>295700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>302500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>286700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>256200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>247000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>251900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>275700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>280100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>260000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>252300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>255900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>265800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>242200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>181400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>175600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>190900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>162400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>169000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1051,8 +1063,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1134,8 +1147,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,174 +1233,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E14" s="3">
         <v>4500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>900</v>
       </c>
       <c r="I14" s="3">
         <v>900</v>
       </c>
       <c r="J14" s="3">
+        <v>900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-10100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>59000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-18400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>32500</v>
+        <v>35100</v>
       </c>
       <c r="E15" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="F15" s="3">
+        <v>35100</v>
+      </c>
+      <c r="G15" s="3">
         <v>33400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>33200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>32300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>30900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>30800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>31500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>33000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>31000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>33700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>33300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>31500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>33200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>34200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>29100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>33400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>32200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>34000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>31200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>31300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>29200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>30200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1411,174 +1436,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>445600</v>
+      </c>
+      <c r="E17" s="3">
         <v>452500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>434400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>441500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>413800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>396300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>390100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>384500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>377100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>395800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>370900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>341600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>356200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>391800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>358900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>361900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>342300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>352000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>323200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>339500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>336800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>242700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>246300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>294500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>225100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>230700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E18" s="3">
         <v>84000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>98200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>96300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>74800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>80200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>108800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>83100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>60700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>48800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>79000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>73400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>66300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>45800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>77400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>71500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>43800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>66500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>61700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>25800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>60700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>79200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1608,423 +1640,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>6100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>26200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>451100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>122600</v>
+        <v>122000</v>
       </c>
       <c r="E21" s="3">
-        <v>135300</v>
+        <v>124100</v>
       </c>
       <c r="F21" s="3">
+        <v>136200</v>
+      </c>
+      <c r="G21" s="3">
         <v>130900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>110400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>109500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>111300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>139800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>114800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>112700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>114500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>95200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>80900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>95300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>114500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>107200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>102200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>83300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>557600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>105800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>76700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>101800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>92700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>59900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>90300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>110100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31900</v>
+        <v>31700</v>
       </c>
       <c r="E22" s="3">
         <v>31900</v>
       </c>
       <c r="F22" s="3">
+        <v>31900</v>
+      </c>
+      <c r="G22" s="3">
         <v>32100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>29100</v>
       </c>
       <c r="N22" s="3">
         <v>29100</v>
       </c>
       <c r="O22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="P22" s="3">
         <v>28500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>27900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>29100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>29700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>29600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>30100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>30200</v>
       </c>
       <c r="X22" s="3">
         <v>30200</v>
       </c>
       <c r="Y22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>30000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>28900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>29000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>29300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E23" s="3">
         <v>58200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>69100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>65400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>50800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>51000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>54400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>80800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>54500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>31400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>53300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>45700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>39900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>498900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>42300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>37600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>31600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>32100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>50600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E24" s="3">
         <v>16900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>102800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-2200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>17300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>9800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>21700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2106,174 +2154,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E26" s="3">
         <v>41300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>50500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>52100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>41200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>65700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>31900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>396100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>30700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>14300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>22300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>28900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E27" s="3">
         <v>41300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>50500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>37400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>52100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>41200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>65700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>31900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>396100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>14300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>22300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>28900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2355,8 +2412,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2390,8 +2450,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2408,23 +2468,23 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-4900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>3600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>142700</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2432,14 +2492,17 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2521,8 +2584,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2604,174 +2670,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-451100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E33" s="3">
         <v>41300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>50500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>37400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>52100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>41200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>65700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>46100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>31900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>391200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>29900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>159300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>14300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>22300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>28900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2853,179 +2928,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E35" s="3">
         <v>41300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>50500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>37400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>52100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>41200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>65700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>46100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>31900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>391200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>29900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>159300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>14300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>22300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>28900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
         <v>44927</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44836</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44745</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44654</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44563</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44472</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44381</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44290</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44199</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43828</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43464</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42918</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42827</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42736</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3055,8 +3139,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3086,91 +3171,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>676500</v>
+      </c>
+      <c r="E41" s="3">
         <v>745900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>731800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>741200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>249400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>571500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>568100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>316500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>307000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>313200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>338000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>294900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>439400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>426200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>414200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>431400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>634800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>194900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>187700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>171400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>186600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>204500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>193200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>198200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3252,589 +3341,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E43" s="3">
         <v>116400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>142400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>115400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>118200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>119500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>103300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>109900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>134500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>81000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>117500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>105000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>101100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>110600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>109800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>100100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>95100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>109900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>114400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>115400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>106600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>90300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>98800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E44" s="3">
         <v>7100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5900</v>
       </c>
       <c r="H44" s="3">
         <v>5900</v>
       </c>
       <c r="I44" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="J44" s="3">
         <v>4300</v>
       </c>
       <c r="K44" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="L44" s="3">
         <v>4700</v>
       </c>
       <c r="M44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N44" s="3">
         <v>4600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3900</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>3500</v>
       </c>
       <c r="R44" s="3">
         <v>3500</v>
       </c>
       <c r="S44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T44" s="3">
         <v>3600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3700</v>
-      </c>
-      <c r="U44" s="3">
-        <v>3300</v>
       </c>
       <c r="V44" s="3">
         <v>3300</v>
       </c>
       <c r="W44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X44" s="3">
         <v>3100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>2900</v>
       </c>
       <c r="Z44" s="3">
         <v>2900</v>
       </c>
       <c r="AA44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AB44" s="3">
         <v>2700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E45" s="3">
         <v>188800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>213800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>221300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>214500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>217900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>167500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>163900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>220000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>266000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>189800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>221000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>211400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>132500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>125800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>141500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>135500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>120800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>117900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>140100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>141700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>115400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>116000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>126800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>152300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>152600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1003400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1058300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1094600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1043900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1079800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>592800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>843500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>839500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>641500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>687600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>607700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>697900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>591900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>554000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>673800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>672400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>663800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>665700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>856100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>433400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>442400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>404400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>420900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>440900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>438500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>452500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>356800</v>
+      </c>
+      <c r="E47" s="3">
         <v>363400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>356100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>362600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>354200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>353800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>346600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>346400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>313500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>318900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>308200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>307000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>307200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>304200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>297500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>289500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>284800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>274100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>278700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>281000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>283300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>302700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>271800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>270100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>57000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>66200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1856100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1884800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1885500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1912900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1932300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1963800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1867900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1880300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1906300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1943500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1957800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1975700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1990800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2034300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2050400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2085300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2117900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1213200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1224000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1227000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1245400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1263100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1252200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1254800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1190600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1192300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2012700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2021900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2025200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2037500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2048500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2056100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1961500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1969800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1971000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1976000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1979000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1983100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1989100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2003100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2007300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2013200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2019600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2042000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2052900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2043200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2053800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2064900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2075600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2081100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2056200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2063900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3916,8 +4029,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3999,91 +4115,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E52" s="3">
         <v>171000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>163600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>158700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>148200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>134900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>137500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>130800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>124400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>113900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>110300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>106600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>102800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>98800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>107300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>103500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>99600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>96900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>95800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>95500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>85000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>61900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>69700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>61900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>210100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>164300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4165,91 +4287,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5408000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5499300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5525000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5515600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5563100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5101400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5156900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5166900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4956700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5040000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4963000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5070400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4981700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4994500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5136200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5163900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5185700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4292000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4507400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4080200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4109800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4096900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4090300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4108700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3952300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3939300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4279,8 +4407,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4310,506 +4439,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E57" s="3">
         <v>44000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>22500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>21700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>24100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>22800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>25800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>24000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>21900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>27600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E58" s="3">
         <v>47600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>46800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>46300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>39800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>48700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>46800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>157300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>160900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>32700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>32600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>30800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>30200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>29400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>29000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>24900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>24700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>306200</v>
+      </c>
+      <c r="E59" s="3">
         <v>296400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>336900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>316400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>328000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>346000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>332000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>293100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>323400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>341200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>295400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>314700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>247300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>293200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>280300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>291300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>274700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>230800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>283800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>174200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>179300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>176600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>161900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>177800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>399500</v>
+      </c>
+      <c r="E60" s="3">
         <v>388000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>418400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>398800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>407600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>426900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>407200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>372800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>396500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>413300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>360300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>492600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>430800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>349700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>337400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>341300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>323600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>284200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>339100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>252800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>250100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>227200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>234400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>229500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>208600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>230100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3354300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3394100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3395000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3399900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3398100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2916000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2889500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2895200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2707100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2724200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2724800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2728000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2733000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2738400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2742600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2740200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2760200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2752800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2759800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2771700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2777200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2724200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2696500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2699800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2527800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2487600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1234600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1251600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1274200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1294000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1302800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1322100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1317500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1328500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1332400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1352900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1356400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1365700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1366900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1390100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1406600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1434400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1461200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>606600</v>
-      </c>
-      <c r="U62" s="3">
-        <v>625200</v>
       </c>
       <c r="V62" s="3">
         <v>625200</v>
       </c>
       <c r="W62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="X62" s="3">
         <v>619600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>572300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>696700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>692300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>691000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>693900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4891,8 +5039,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4974,8 +5125,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5057,91 +5211,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4988500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5033600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5087600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5092700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5108600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4665000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4614200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4596500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4436000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4490400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4441500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4586400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4530600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4478200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4486600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4515800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4545000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3643600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3724100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3649600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3646800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3523700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3627700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3621600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3427500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3411600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5171,8 +5331,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5254,8 +5415,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5337,8 +5501,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5420,8 +5587,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5503,91 +5673,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>401400</v>
+      </c>
+      <c r="E72" s="3">
         <v>414700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>400100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>376200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>354700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>344200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>318000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>303500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>259900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>238700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>215600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>187100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>173400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>185700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>186300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>163200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>154000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>146300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>147000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-224100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-233700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-163300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-305700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-302900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-283900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-290900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5669,8 +5845,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5752,8 +5931,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5835,91 +6017,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>419600</v>
+      </c>
+      <c r="E76" s="3">
         <v>465700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>437400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>422900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>454500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>436400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>542800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>570400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>520700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>549600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>521500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>484000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>451100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>516400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>649600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>648000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>640700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>648400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>783300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>430500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>463000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>573200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>462600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>487000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>524800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>527700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6001,179 +6189,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
         <v>44927</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44836</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44745</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44654</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44563</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44472</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44381</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44290</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44199</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43828</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43464</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42918</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42827</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42736</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E81" s="3">
         <v>41300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>50500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>37400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>52100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>41200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>65700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>46100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>31900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>391200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>29900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>159300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>14300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>22300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>28900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6203,91 +6400,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>32500</v>
+        <v>35100</v>
       </c>
       <c r="E83" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="F83" s="3">
+        <v>35100</v>
+      </c>
+      <c r="G83" s="3">
         <v>33400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>33200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>34200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>33400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>34000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>31200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>31300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>29200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>30200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6369,8 +6570,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6452,8 +6656,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6535,8 +6742,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6618,8 +6828,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6701,91 +6914,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E89" s="3">
         <v>77300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>77200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>69100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>117900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>72900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>85800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>78600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>175200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>49900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-19400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>51400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>83400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>92000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>62000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>81200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>79700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>68700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>74900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>56200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>81900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>38700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>51600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6815,91 +7034,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-21600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-14800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-82600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6981,8 +7204,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7064,91 +7290,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-169700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>37000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>414100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-15100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>29700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7178,13 +7410,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26600</v>
+        <v>-53100</v>
       </c>
       <c r="E96" s="3">
         <v>-26600</v>
@@ -7193,37 +7426,37 @@
         <v>-26600</v>
       </c>
       <c r="G96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-26900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-25900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-26700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-22100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-20200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-11200</v>
       </c>
       <c r="N96" s="3">
         <v>-11200</v>
       </c>
       <c r="O96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="P96" s="3">
         <v>-26800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-23100</v>
       </c>
       <c r="R96" s="3">
         <v>-23100</v>
@@ -7232,37 +7465,40 @@
         <v>-23100</v>
       </c>
       <c r="T96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="U96" s="3">
         <v>-19700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-20100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-20300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-20400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-16900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-17200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-17300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-16000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7344,8 +7580,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7427,8 +7666,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7510,253 +7752,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-132300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-35800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-38200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-90100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>452800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-185300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-86400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>120600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-91700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-42600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-163600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>63400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-181900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-53200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-67600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-62600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-154800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-55700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-69600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-25700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-58800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-62800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-56200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-188900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="E102" s="3">
         <v>10900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>461000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-285700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>232000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-139000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-194300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>441900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>29400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-15200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-17900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>11300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-110500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,375 +665,387 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44927</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44745</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44654</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44563</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44472</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44381</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44290</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44199</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43828</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43464</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42918</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42827</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42736</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>561600</v>
+      </c>
+      <c r="E8" s="3">
         <v>528800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>536500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>532600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>537800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>488600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>473200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>470300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>493300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>460200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>474300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>452200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>402300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>405000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>427200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>437900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>435300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>408600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>397800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>411000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>380600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>309200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>308000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>320300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>285800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>309900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E9" s="3">
         <v>201900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>199400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>201500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>199700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>189600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>170100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>156900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>163000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>164500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>171800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>165500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>146100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>158000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>175300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>162200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>155200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>148600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>145500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>144700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>145200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>138400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>127800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>132400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>129400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>123400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>140900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>354300</v>
+      </c>
+      <c r="E10" s="3">
         <v>326900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>337100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>331100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>338100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>299000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>303100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>313400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>330300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>295700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>302500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>286700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>256200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>247000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>251900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>275700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>280100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>260000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>252300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>255900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>265800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>242200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>181400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>175600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>190900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>162400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>169000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1064,8 +1076,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1150,8 +1163,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1236,180 +1252,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>8300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>900</v>
       </c>
       <c r="J14" s="3">
         <v>900</v>
       </c>
       <c r="K14" s="3">
+        <v>900</v>
+      </c>
+      <c r="L14" s="3">
         <v>-10100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>59000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-18400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E15" s="3">
         <v>35100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>33400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>32300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>30900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>30800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>31500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>34700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>31000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>33700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>33300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>31500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>33200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>34200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>29100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>33400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>32200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>34000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>31200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>31300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>29200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>30200</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1437,180 +1462,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>452300</v>
+      </c>
+      <c r="E17" s="3">
         <v>445600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>452500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>434400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>441500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>413800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>396300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>390100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>384500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>377100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>395800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>370900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>341600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>356200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>391800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>358900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>361900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>342300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>352000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>323200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>339500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>336800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>242700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>246300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>294500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>225100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>230700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E18" s="3">
         <v>83200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>84000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>98200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>96300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>74800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>76900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>80200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>108800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>83100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>79000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>73400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>66300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>45800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>77400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>71500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>43800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>66500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>61700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>25800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>60700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>79200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1641,438 +1673,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>26200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>451100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>145800</v>
+      </c>
+      <c r="E21" s="3">
         <v>122000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>124100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>136200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>130900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>110400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>109500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>111300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>139800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>114800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>112700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>114500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>95200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>80900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>95300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>114500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>107200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>102200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>83300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>557600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>105800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>76700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>101800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>92700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>59900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>90300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>110100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E22" s="3">
         <v>31700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>31900</v>
       </c>
       <c r="F22" s="3">
         <v>31900</v>
       </c>
       <c r="G22" s="3">
+        <v>31900</v>
+      </c>
+      <c r="H22" s="3">
         <v>32100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>31000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>29100</v>
       </c>
       <c r="O22" s="3">
         <v>29100</v>
       </c>
       <c r="P22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>28500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>27900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>29900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>29100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>29700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>29600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>30100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>30200</v>
       </c>
       <c r="Y22" s="3">
         <v>30200</v>
       </c>
       <c r="Z22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="AA22" s="3">
         <v>30000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>28900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>29000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>29300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E23" s="3">
         <v>55300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>69100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>65400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>50800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>51000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>54400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>80800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>47600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>53300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>45700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>39900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>19400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>498900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>42300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>37600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>31600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>32100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>50600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E24" s="3">
         <v>15500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>102800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>17300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>9800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>21700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2157,180 +2205,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E26" s="3">
         <v>39800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>41300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>52100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>41200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>65700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>46100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>31900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>396100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>30700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>14300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>22300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>28900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E27" s="3">
         <v>39800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>50500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>48200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>52100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>41200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>65700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>31900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>396100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>30700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>14300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>22300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>28900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2415,8 +2472,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2453,8 +2513,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2471,23 +2531,23 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-4900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>3600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>142700</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2495,14 +2555,17 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2587,8 +2650,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2673,180 +2739,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-26200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-451100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E33" s="3">
         <v>39800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>48200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>52100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>41200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>65700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>46100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>31900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>18800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>391200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>29900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>159300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>14300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>22300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>28900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2931,185 +3006,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E35" s="3">
         <v>39800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>48200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>52100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>41200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>65700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>46100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>31900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>18800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>391200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>29900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>159300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>14300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>22300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>28900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44927</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44745</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44654</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44563</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44472</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44381</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44290</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44199</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43828</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43464</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42918</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42827</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42736</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3140,8 +3224,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3172,94 +3257,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>635400</v>
+      </c>
+      <c r="E41" s="3">
         <v>676500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>745900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>731800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>741200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>249400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>571500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>568100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>316500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>307000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>313200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>338000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>294900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>439400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>426200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>414200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>431400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>634800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>194900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>187700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>171400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>186600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>204500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>193200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>198200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3344,94 +3433,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E43" s="3">
         <v>136300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>116400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>142400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>115400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>118200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>119500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>103300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>134500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>81000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>117500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>105000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>101100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>110600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>109800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>100100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>95100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>109900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>114400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>115400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>106600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>90300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>98800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3439,515 +3534,533 @@
         <v>6500</v>
       </c>
       <c r="E44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F44" s="3">
         <v>7100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>5900</v>
       </c>
       <c r="I44" s="3">
         <v>5900</v>
       </c>
       <c r="J44" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="K44" s="3">
         <v>4300</v>
       </c>
       <c r="L44" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="M44" s="3">
         <v>4700</v>
       </c>
       <c r="N44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O44" s="3">
         <v>4600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3900</v>
-      </c>
-      <c r="R44" s="3">
-        <v>3500</v>
       </c>
       <c r="S44" s="3">
         <v>3500</v>
       </c>
       <c r="T44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U44" s="3">
         <v>3600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3700</v>
-      </c>
-      <c r="V44" s="3">
-        <v>3300</v>
       </c>
       <c r="W44" s="3">
         <v>3300</v>
       </c>
       <c r="X44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Y44" s="3">
         <v>3100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3200</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>2900</v>
       </c>
       <c r="AA44" s="3">
         <v>2900</v>
       </c>
       <c r="AB44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC44" s="3">
         <v>2700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E45" s="3">
         <v>184100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>188800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>213800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>221300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>214500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>217900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>167500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>163900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>220000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>266000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>189800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>221000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>211400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>132500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>125800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>141500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>135500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>120800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>117900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>140100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>141700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>115400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>116000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>126800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>152300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>152600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>967400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1003400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1058300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1094600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1043900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1079800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>592800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>843500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>839500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>641500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>687600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>607700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>697900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>591900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>554000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>673800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>672400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>663800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>665700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>856100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>433400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>442400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>404400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>420900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>440900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>438500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>452500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>351800</v>
+      </c>
+      <c r="E47" s="3">
         <v>356800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>363400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>356100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>362600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>354200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>353800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>346600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>346400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>313500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>318900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>308200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>307000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>307200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>304200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>297500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>289500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>284800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>274100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>278700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>281000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>283300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>302700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>271800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>270100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>57000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>66200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1845200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1856100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1884800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1885500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1912900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1932300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1963800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1867900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1880300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1906300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1943500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1957800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1975700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1990800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2034300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2050400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2085300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2117900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1213200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1224000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1227000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1245400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1263100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1252200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1254800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1190600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1192300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2005500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2012700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2021900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2025200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2037500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2048500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2056100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1961500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1969800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1971000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1976000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1979000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1983100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1989100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2003100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2007300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2013200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2019600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2042000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2052900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2043200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2053800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2064900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2075600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2081100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2056200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2063900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4032,8 +4145,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4118,94 +4234,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E52" s="3">
         <v>179000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>171000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>163600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>158700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>148200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>134900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>137500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>130800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>124400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>113900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>110300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>106600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>102800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>98800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>107300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>103500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>99600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>96900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>95800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>95500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>85000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>61900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>69700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>61900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>210100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>164300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4290,94 +4412,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5353800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5408000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5499300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5525000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5515600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5563100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5101400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5156900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5166900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4956700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5040000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4963000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5070400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4981700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4994500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5136200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5163900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5185700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4292000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4507400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4080200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4109800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4096900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4090300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4108700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3952300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3939300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4408,8 +4536,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4440,524 +4569,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E57" s="3">
         <v>45300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>24100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>21300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>19300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>22800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>25800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>24000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>21900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>27600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E58" s="3">
         <v>48000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>46800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>46500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>39800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>46800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>157300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>160900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>32700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>32600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>31100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>30800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>30200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>29400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>29000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>24900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>24700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>302800</v>
+      </c>
+      <c r="E59" s="3">
         <v>306200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>296400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>336900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>316400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>328000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>346000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>332000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>293100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>323400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>341200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>295400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>314700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>247300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>293200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>280300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>291300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>274700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>230800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>283800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>174200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>179300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>176600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>161900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>177800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>389900</v>
+      </c>
+      <c r="E60" s="3">
         <v>399500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>388000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>418400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>398800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>407600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>426900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>407200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>372800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>396500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>413300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>360300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>492600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>430800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>349700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>337400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>341300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>323600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>284200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>339100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>252800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>250100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>227200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>234400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>229500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>208600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>230100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3348600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3354300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3394100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3395000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3399900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3398100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2916000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2889500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2895200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2707100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2724200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2724800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2728000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2733000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2738400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2742600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2740200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2760200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2752800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2759800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2771700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2777200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2724200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2696500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2699800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2527800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2487600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1224100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1234600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1251600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1274200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1294000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1302800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1322100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1317500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1328500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1332400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1352900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1356400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1365700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1366900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1390100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1406600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1434400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1461200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>606600</v>
-      </c>
-      <c r="V62" s="3">
-        <v>625200</v>
       </c>
       <c r="W62" s="3">
         <v>625200</v>
       </c>
       <c r="X62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="Y62" s="3">
         <v>619600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>572300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>696700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>692300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>691000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>693900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5042,8 +5190,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5128,8 +5279,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5214,94 +5368,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4962600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4988500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5033600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5087600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5092700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5108600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4665000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4614200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4596500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4436000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4490400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4441500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4586400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4530600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4478200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4486600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4515800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4545000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3643600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3724100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3649600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3646800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3523700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3627700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3621600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3427500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3411600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5332,8 +5492,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5418,8 +5579,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5504,8 +5668,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5590,8 +5757,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5676,94 +5846,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>408400</v>
+      </c>
+      <c r="E72" s="3">
         <v>401400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>414700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>400100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>376200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>354700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>344200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>318000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>303500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>259900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>238700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>215600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>187100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>173400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>185700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>186300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>163200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>154000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>146300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>147000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-224100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-233700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-163300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-305700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-302900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-283900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-290900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5848,8 +6024,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5934,8 +6113,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6020,94 +6202,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>391100</v>
+      </c>
+      <c r="E76" s="3">
         <v>419600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>465700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>437400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>422900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>454500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>436400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>542800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>570400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>520700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>549600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>521500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>484000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>451100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>516400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>649600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>648000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>640700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>648400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>783300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>430500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>463000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>573200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>462600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>487000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>524800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>527700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6192,185 +6380,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44927</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44745</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44654</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44563</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44472</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44381</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44290</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44199</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43828</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43464</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42918</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42827</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42736</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E81" s="3">
         <v>39800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>48200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>52100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>41200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>65700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>46100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>31900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>18800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>391200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>29900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>159300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>14300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>22300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>28900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6401,94 +6598,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E83" s="3">
         <v>35100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>33200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>33400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>34000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>31200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>31300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>29200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>30200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6573,8 +6774,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6659,8 +6863,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6745,8 +6952,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6831,8 +7041,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6917,94 +7130,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E89" s="3">
         <v>53000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>77300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>84400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>77200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>69100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>117900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>85800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>78600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>175200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>49900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>51400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>83400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>92000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>62000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>81200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>79700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>68700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>74900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>56200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>81900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>38700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>51600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7035,94 +7254,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-33500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-21600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-14800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-82600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7207,8 +7430,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7293,94 +7519,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-169700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>37000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-28500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>414100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-15100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>29700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7411,16 +7643,17 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-53100</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-26600</v>
       </c>
       <c r="F96" s="3">
         <v>-26600</v>
@@ -7429,37 +7662,37 @@
         <v>-26600</v>
       </c>
       <c r="H96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-26900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-25900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-26700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-22100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-20200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-11200</v>
       </c>
       <c r="O96" s="3">
         <v>-11200</v>
       </c>
       <c r="P96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-23100</v>
       </c>
       <c r="S96" s="3">
         <v>-23100</v>
@@ -7468,37 +7701,40 @@
         <v>-23100</v>
       </c>
       <c r="U96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="V96" s="3">
         <v>-19700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-20100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-20300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-16900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-17200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-17300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-16000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7583,8 +7819,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7669,8 +7908,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7755,262 +7997,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-132300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-35800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-90100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>452800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-185300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-86400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>120600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-91700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-42600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-163600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>63400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-181900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-53200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-67600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-62600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-154800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-55700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-69600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-25700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-58800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-62800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-56200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-188900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-91200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>461000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-285700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>232000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-139000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-194300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>441900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>29400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-15200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-17900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>11300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-110500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>42600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>WEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,387 +665,399 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44927</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44836</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44745</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44654</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44563</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44472</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44381</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44290</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44199</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43828</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43464</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42918</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42827</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42736</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>550600</v>
+      </c>
+      <c r="E8" s="3">
         <v>561600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>528800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>536500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>532600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>537800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>488600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>473200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>470300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>493300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>460200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>474300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>452200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>402300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>405000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>427200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>437900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>435300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>408600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>397800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>411000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>380600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>309200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>308000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>320300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>285800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>309900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E9" s="3">
         <v>207300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>201900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>199400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>201500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>199700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>189600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>170100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>156900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>163000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>164500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>171800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>165500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>146100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>158000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>175300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>162200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>155200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>148600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>145500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>144700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>145200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>138400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>127800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>132400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>129400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>123400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>140900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>186500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>343800</v>
+      </c>
+      <c r="E10" s="3">
         <v>354300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>326900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>337100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>331100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>338100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>299000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>303100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>313400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>330300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>295700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>302500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>286700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>256200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>247000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>251900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>275700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>280100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>260000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>252300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>255900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>265800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>242200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>181400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>175600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>190900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>162400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>169000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1077,8 +1089,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1166,8 +1179,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1255,186 +1271,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="F14" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G14" s="3">
         <v>4500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>900</v>
       </c>
       <c r="K14" s="3">
         <v>900</v>
       </c>
       <c r="L14" s="3">
+        <v>900</v>
+      </c>
+      <c r="M14" s="3">
         <v>-10100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>14900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>4000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>59000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-18400</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E15" s="3">
         <v>35800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>32300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>30900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>30800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>31500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>34700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>31000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>33700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>33300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>31500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>33200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>34200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>29100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>33400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>32200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>34000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>31200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>31300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>29200</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>30200</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1463,186 +1488,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>452300</v>
+        <v>449300</v>
       </c>
       <c r="E17" s="3">
-        <v>445600</v>
+        <v>459100</v>
       </c>
       <c r="F17" s="3">
+        <v>449200</v>
+      </c>
+      <c r="G17" s="3">
         <v>452500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>434400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>441500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>413800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>396300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>390100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>384500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>377100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>395800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>370900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>341600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>356200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>391800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>358900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>361900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>342300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>352000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>323200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>339500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>336800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>242700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>246300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>294500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>225100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>230700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>257900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>109300</v>
+        <v>101300</v>
       </c>
       <c r="E18" s="3">
-        <v>83200</v>
+        <v>102500</v>
       </c>
       <c r="F18" s="3">
+        <v>79600</v>
+      </c>
+      <c r="G18" s="3">
         <v>84000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>98200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>96300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>74800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>76900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>108800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>83100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>60700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>48800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>35400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>79000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>73400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>66300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>45800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>77400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>71500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>43800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>66500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>61700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>25800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>60700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>79200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>106100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1674,453 +1706,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>700</v>
+        <v>7600</v>
       </c>
       <c r="E20" s="3">
-        <v>3800</v>
+        <v>7500</v>
       </c>
       <c r="F20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G20" s="3">
         <v>6100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>26200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>451100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>700</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E21" s="3">
         <v>145800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>122000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>124100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>136200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>130900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>110400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>109500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>111300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>139800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>114800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>112700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>114500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>95200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>80900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>95300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>114500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>107200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>102200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>83300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>557600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>105800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>76700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>101800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>92700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>59900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>90300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>110100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>135900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E22" s="3">
         <v>31100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>31900</v>
       </c>
       <c r="G22" s="3">
         <v>31900</v>
       </c>
       <c r="H22" s="3">
+        <v>31900</v>
+      </c>
+      <c r="I22" s="3">
         <v>32100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>31000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>29100</v>
       </c>
       <c r="P22" s="3">
         <v>29100</v>
       </c>
       <c r="Q22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="R22" s="3">
         <v>28500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>27900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>29900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>29100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>29700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>29600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>30100</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>30200</v>
       </c>
       <c r="Z22" s="3">
         <v>30200</v>
       </c>
       <c r="AA22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="AB22" s="3">
         <v>30000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>28900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>29000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>29300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E23" s="3">
         <v>78900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>55300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>58200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>69100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>65400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>50800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>51000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>54400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>80800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>54500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>52400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>53300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>45700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>39900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>19400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>498900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>42300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>14400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>37600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>31600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>32100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>50600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E24" s="3">
         <v>19300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>102800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>21000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>17300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>9800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>21700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2208,186 +2256,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E26" s="3">
         <v>59600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>39800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>41300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>50500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>52100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>65700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>31900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>19000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>396100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>30700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>14300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>22300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>28900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E27" s="3">
         <v>59600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>39800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>50500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>52100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>65700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>31900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>396100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>30700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>14300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>22300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>28900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2475,8 +2532,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2516,8 +2576,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2534,23 +2594,23 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-4900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>3600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>142700</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2558,14 +2618,17 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2653,8 +2716,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2742,186 +2808,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-700</v>
+        <v>-7600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3800</v>
+        <v>-7500</v>
       </c>
       <c r="F32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-26200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-451100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-700</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E33" s="3">
         <v>59600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>39800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>50500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>48200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>52100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>65700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>46100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>31900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>391200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>29900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>159300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>14300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>22300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>28900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3009,191 +3084,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E35" s="3">
         <v>59600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>39800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>50500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>48200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>52100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>65700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>46100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>31900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>391200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>29900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>159300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>14300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>22300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>28900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45109</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44927</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44836</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44745</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44654</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44563</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44472</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44381</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44290</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44199</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43828</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43464</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42918</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42827</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42736</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3225,8 +3309,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3258,97 +3343,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>598000</v>
+      </c>
+      <c r="E41" s="3">
         <v>635400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>676500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>745900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>731800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>741200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>249400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>571500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>568100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>316500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>307000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>313200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>338000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>294900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>439400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>426200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>414200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>431400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>634800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>194900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>187700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>171400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>186600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>204500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>193200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>198200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>308800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3436,631 +3525,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E43" s="3">
         <v>142600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>136300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>116400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>142400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>115400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>118200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>119500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>103300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>109900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>134500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>81000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>117500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>105000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>101100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>110600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>109800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>100100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>95100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>109900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>114400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>115400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>106600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>90300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>98800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="E44" s="3">
         <v>6500</v>
       </c>
       <c r="F44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G44" s="3">
         <v>7100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>5900</v>
       </c>
       <c r="J44" s="3">
         <v>5900</v>
       </c>
       <c r="K44" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="L44" s="3">
         <v>4300</v>
       </c>
       <c r="M44" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="N44" s="3">
         <v>4700</v>
       </c>
       <c r="O44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P44" s="3">
         <v>4600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3900</v>
-      </c>
-      <c r="S44" s="3">
-        <v>3500</v>
       </c>
       <c r="T44" s="3">
         <v>3500</v>
       </c>
       <c r="U44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V44" s="3">
         <v>3600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3700</v>
-      </c>
-      <c r="W44" s="3">
-        <v>3300</v>
       </c>
       <c r="X44" s="3">
         <v>3300</v>
       </c>
       <c r="Y44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Z44" s="3">
         <v>3100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3200</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>2900</v>
       </c>
       <c r="AB44" s="3">
         <v>2900</v>
       </c>
       <c r="AC44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AD44" s="3">
         <v>2700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E45" s="3">
         <v>182900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>184100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>188800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>213800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>221300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>214500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>217900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>167500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>163900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>220000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>266000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>189800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>221000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>211400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>132500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>125800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>141500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>135500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>120800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>117900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>140100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>141700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>115400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>116000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>126800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>152300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>152600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>926100</v>
+      </c>
+      <c r="E46" s="3">
         <v>967400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1003400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1058300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1094600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1043900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1079800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>592800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>843500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>839500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>641500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>687600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>607700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>697900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>591900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>554000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>673800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>672400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>663800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>665700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>856100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>433400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>442400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>404400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>420900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>440900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>438500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>452500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>612800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>348400</v>
+      </c>
+      <c r="E47" s="3">
         <v>351800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>356800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>363400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>356100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>362600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>354200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>353800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>346600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>346400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>313500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>318900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>308200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>307000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>307200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>304200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>297500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>289500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>284800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>274100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>278700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>281000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>283300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>302700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>271800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>270100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>57000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>66200</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1832500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1845200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1856100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1884800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1885500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1912900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1932300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1963800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1867900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1880300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1906300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1943500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1957800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1975700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1990800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2034300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2050400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2085300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2117900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1213200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1224000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1227000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1245400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1263100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1252200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1254800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1190600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1192300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1207900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1998500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2005500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2012700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2021900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2025200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2037500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2048500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2056100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1961500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1969800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1971000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1976000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1979000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1983100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1989100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2003100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2007300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2013200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2019600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2042000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2052900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2043200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2053800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2064900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2075600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2081100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2056200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2063900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2068400</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4148,8 +4261,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4237,97 +4353,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E52" s="3">
         <v>183800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>179000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>171000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>163600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>158700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>148200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>134900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>137500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>130800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>124400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>113900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>110300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>106600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>102800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>98800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>107300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>103500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>99600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>96900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>95800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>95500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>85000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>61900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>69700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>61900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>210100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>164300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4415,97 +4537,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5290400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5353800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5408000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5499300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5525000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5515600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5563100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5101400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5156900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5166900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4956700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5040000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4963000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5070400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4981700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4994500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5136200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5163900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5185700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4292000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4507400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4080200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4109800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4096900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4090300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4108700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3952300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3939300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>4114400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4537,8 +4665,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4570,542 +4699,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E57" s="3">
         <v>38600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>22700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>24100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>21300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>19300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>22800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>25800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>24000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>21900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>27600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E58" s="3">
         <v>48500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>46300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>46500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>39800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>43800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>41100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>46800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>157300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>160900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>33300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>32700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>32600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>31300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>31100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>30800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>30200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>29400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>29000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>24900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>24700</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>314500</v>
+      </c>
+      <c r="E59" s="3">
         <v>302800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>306200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>296400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>336900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>316400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>328000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>346000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>332000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>293100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>323400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>341200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>295400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>314700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>247300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>293200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>280300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>291300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>274700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>230800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>283800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>174200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>179300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>176600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>161900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>177800</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>405200</v>
+      </c>
+      <c r="E60" s="3">
         <v>389900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>399500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>388000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>418400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>398800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>407600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>426900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>407200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>372800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>396500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>413300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>360300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>492600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>430800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>349700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>337400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>341300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>323600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>284200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>339100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>252800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>250100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>227200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>234400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>229500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>208600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>230100</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3335000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3348600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3354300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3394100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3395000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3399900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3398100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2916000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2889500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2895200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2707100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2724200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2724800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2728000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2733000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2738400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2742600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2740200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2760200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2752800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2759800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2771700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2777200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2724200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2696500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2699800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2527800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2487600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>2492000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1207700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1224100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1234600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1251600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1274200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1294000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1302800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1322100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1317500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1328500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1332400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1352900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1356400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1365700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1366900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1390100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1406600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1434400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1461200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>606600</v>
-      </c>
-      <c r="W62" s="3">
-        <v>625200</v>
       </c>
       <c r="X62" s="3">
         <v>625200</v>
       </c>
       <c r="Y62" s="3">
+        <v>625200</v>
+      </c>
+      <c r="Z62" s="3">
         <v>619600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>572300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>696700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>692300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>691000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>693900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>678900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5193,8 +5341,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5282,8 +5433,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5371,97 +5525,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4947900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4962600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4988500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5033600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5087600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5092700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5108600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4665000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4614200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4596500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4436000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4490400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4441500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4586400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4530600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4478200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4486600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4515800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4545000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3643600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3724100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3649600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3646800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3523700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3627700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3621600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3427500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3411600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>3435800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5493,8 +5653,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5582,8 +5743,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5671,8 +5835,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5760,8 +5927,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5849,97 +6019,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>414300</v>
+      </c>
+      <c r="E72" s="3">
         <v>408400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>401400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>414700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>400100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>376200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>354700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>344200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>318000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>303500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>259900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>238700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>215600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>187100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>173400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>185700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>186300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>163200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>154000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>146300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>147000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-224100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-233700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-163300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-305700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-302900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-283900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-290900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-303700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6027,8 +6203,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6116,8 +6295,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6205,97 +6387,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>342600</v>
+      </c>
+      <c r="E76" s="3">
         <v>391100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>419600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>465700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>437400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>422900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>454500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>436400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>542800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>570400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>520700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>549600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>521500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>484000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>451100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>516400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>649600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>648000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>640700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>648400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>783300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>430500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>463000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>573200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>462600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>487000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>524800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>527700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6383,191 +6571,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45109</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44927</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44836</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44745</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44654</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44563</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44472</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44381</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44290</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44199</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43828</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43464</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42918</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42827</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42736</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E81" s="3">
         <v>59600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>39800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>50500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>48200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>52100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>65700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>46100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>31900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>391200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>29900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>159300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>14300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>22300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>28900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6599,97 +6796,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E83" s="3">
         <v>35800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>33300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>33200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>34200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>33400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>34000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>31200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>31300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>29200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>30200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6777,8 +6978,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6866,8 +7070,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6955,8 +7162,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7044,8 +7254,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7133,97 +7346,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E89" s="3">
         <v>88500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>53000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>77300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>84400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>77200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>69100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>117900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>72900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>85800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>78600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>175200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>49900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-19400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>51400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>83400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>92000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>62000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>81200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>79700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>68700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>74900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>56200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>81900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>38700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>51600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7255,97 +7474,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-35500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-33500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-28000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-21600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-14800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-82600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-80500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7433,8 +7656,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7522,97 +7748,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-169700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>37000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-28500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>414100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-16600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-15100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>29700</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7644,19 +7876,20 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-52600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-53100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-26600</v>
       </c>
       <c r="G96" s="3">
         <v>-26600</v>
@@ -7665,37 +7898,37 @@
         <v>-26600</v>
       </c>
       <c r="I96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="J96" s="3">
         <v>-26900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-25900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-26700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-22100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-20200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-15700</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-11200</v>
       </c>
       <c r="P96" s="3">
         <v>-11200</v>
       </c>
       <c r="Q96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="R96" s="3">
         <v>-26800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-27100</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-23100</v>
       </c>
       <c r="T96" s="3">
         <v>-23100</v>
@@ -7704,37 +7937,40 @@
         <v>-23100</v>
       </c>
       <c r="V96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="W96" s="3">
         <v>-19700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-20100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-16900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-17200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-17300</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-16000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7822,8 +8058,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7911,8 +8150,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8000,271 +8242,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-126900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-114000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-132300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-35800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-90100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>452800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-185300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-86400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>120600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-91700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-42600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-163600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>63400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-181900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-53200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-67600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-62600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-154800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-55700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-69600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-25700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-58800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-62800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-56200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-188900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-2000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-91200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>461000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-285700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>232000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-139000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-194300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>441900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>29400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-15200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-17900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>11300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-110500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>42600</v>
       </c>
     </row>
